--- a/Documentos/RBAC.xlsx
+++ b/Documentos/RBAC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestorRestauranteWEB\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BF03F4-5740-429D-B10A-12BAE8ECD7AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CA4B37-15FD-47AC-81AE-DB3D5CF2C2F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{844C1BEA-3A98-4A24-8BD3-ADFF3B39AE3F}"/>
   </bookViews>
@@ -646,6 +646,32 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -655,6 +681,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -664,47 +708,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -778,71 +843,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Correto" xfId="2" builtinId="26"/>
@@ -1171,226 +1171,216 @@
   <sheetData>
     <row r="4" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="20" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20" t="s">
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12" t="s">
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="13"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12" t="s">
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="13"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="19"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="13"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="19"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12" t="s">
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="13"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="19"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14" t="s">
+      <c r="F15" s="30"/>
+      <c r="G15" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15" t="s">
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="16"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="32"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="J9:L9"/>
@@ -1405,6 +1395,17 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="J15:L15"/>
@@ -1415,7 +1416,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="J13:L13"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J7" r:id="rId1" xr:uid="{329CB05F-94CD-42AE-A5CF-0F7F122D6BE7}"/>
@@ -1433,7 +1433,7 @@
   <dimension ref="A1:BS32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AZ13" sqref="AZ13"/>
+      <selection activeCell="BE29" sqref="BE29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,110 +1462,110 @@
     <row r="5" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="69" t="s">
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="69" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="74" t="s">
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="69" t="s">
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="69" t="s">
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AA5" s="69"/>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="60"/>
-      <c r="AE5" s="71" t="s">
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="AF5" s="72"/>
-      <c r="AG5" s="72"/>
-      <c r="AH5" s="73"/>
-      <c r="AI5" s="60"/>
-      <c r="AJ5" s="71" t="s">
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AK5" s="72"/>
-      <c r="AL5" s="72"/>
-      <c r="AM5" s="73"/>
-      <c r="AN5" s="60"/>
-      <c r="AO5" s="69" t="s">
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AP5" s="69"/>
-      <c r="AQ5" s="69"/>
-      <c r="AR5" s="69"/>
-      <c r="AS5" s="60"/>
-      <c r="AT5" s="69" t="s">
+      <c r="AP5" s="34"/>
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="34"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AU5" s="69"/>
-      <c r="AV5" s="69"/>
-      <c r="AW5" s="69"/>
-      <c r="AX5" s="60"/>
-      <c r="AY5" s="69" t="s">
+      <c r="AU5" s="34"/>
+      <c r="AV5" s="34"/>
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="38"/>
+      <c r="AY5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="AZ5" s="69"/>
-      <c r="BA5" s="69"/>
-      <c r="BB5" s="69"/>
-      <c r="BC5" s="60"/>
-      <c r="BD5" s="69" t="s">
+      <c r="AZ5" s="34"/>
+      <c r="BA5" s="34"/>
+      <c r="BB5" s="34"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="BE5" s="69"/>
-      <c r="BF5" s="69"/>
-      <c r="BG5" s="69"/>
-      <c r="BH5" s="60"/>
-      <c r="BI5" s="69" t="s">
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="34"/>
+      <c r="BG5" s="34"/>
+      <c r="BH5" s="38"/>
+      <c r="BI5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="BJ5" s="69"/>
-      <c r="BK5" s="69"/>
-      <c r="BL5" s="69"/>
-      <c r="BM5" s="60"/>
-      <c r="BN5" s="69" t="s">
+      <c r="BJ5" s="34"/>
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34"/>
+      <c r="BM5" s="38"/>
+      <c r="BN5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="BO5" s="69"/>
-      <c r="BP5" s="69"/>
-      <c r="BQ5" s="69"/>
+      <c r="BO5" s="34"/>
+      <c r="BP5" s="34"/>
+      <c r="BQ5" s="34"/>
       <c r="BR5" s="8"/>
       <c r="BS5" s="8"/>
     </row>
     <row r="6" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="64"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="61"/>
+      <c r="J6" s="39"/>
       <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1591,7 +1591,7 @@
       <c r="N6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="61"/>
+      <c r="O6" s="39"/>
       <c r="P6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="S6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="67"/>
+      <c r="T6" s="50"/>
       <c r="U6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1617,7 +1617,7 @@
       <c r="X6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Y6" s="61"/>
+      <c r="Y6" s="39"/>
       <c r="Z6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1630,7 +1630,7 @@
       <c r="AC6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AD6" s="61"/>
+      <c r="AD6" s="39"/>
       <c r="AE6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1643,7 +1643,7 @@
       <c r="AH6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AI6" s="61"/>
+      <c r="AI6" s="39"/>
       <c r="AJ6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="AM6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AN6" s="61"/>
+      <c r="AN6" s="39"/>
       <c r="AO6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="AR6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AS6" s="61"/>
+      <c r="AS6" s="39"/>
       <c r="AT6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="AW6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AX6" s="61"/>
+      <c r="AX6" s="39"/>
       <c r="AY6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="BB6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BC6" s="61"/>
+      <c r="BC6" s="39"/>
       <c r="BD6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="BG6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BH6" s="61"/>
+      <c r="BH6" s="39"/>
       <c r="BI6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="BL6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BM6" s="61"/>
+      <c r="BM6" s="39"/>
       <c r="BN6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1740,71 +1740,71 @@
     <row r="7" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="64"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="61"/>
+      <c r="J7" s="39"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="61"/>
+      <c r="O7" s="39"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="67"/>
+      <c r="T7" s="50"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="61"/>
+      <c r="Y7" s="39"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="61"/>
+      <c r="AD7" s="39"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
-      <c r="AI7" s="61"/>
+      <c r="AI7" s="39"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
-      <c r="AN7" s="61"/>
+      <c r="AN7" s="39"/>
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
-      <c r="AS7" s="61"/>
+      <c r="AS7" s="39"/>
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
-      <c r="AX7" s="61"/>
+      <c r="AX7" s="39"/>
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
-      <c r="BC7" s="61"/>
+      <c r="BC7" s="39"/>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
       <c r="BG7" s="1"/>
-      <c r="BH7" s="61"/>
+      <c r="BH7" s="39"/>
       <c r="BI7" s="1"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
-      <c r="BM7" s="61"/>
+      <c r="BM7" s="39"/>
       <c r="BN7" s="1"/>
       <c r="BO7" s="1"/>
       <c r="BP7" s="1"/>
@@ -1815,144 +1815,144 @@
     <row r="8" spans="1:71" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="57"/>
-      <c r="AD8" s="61"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="57"/>
-      <c r="AI8" s="61"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="56"/>
-      <c r="AL8" s="56"/>
-      <c r="AM8" s="57"/>
-      <c r="AN8" s="61"/>
-      <c r="AO8" s="55"/>
-      <c r="AP8" s="56"/>
-      <c r="AQ8" s="56"/>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="61"/>
-      <c r="AT8" s="55"/>
-      <c r="AU8" s="56"/>
-      <c r="AV8" s="56"/>
-      <c r="AW8" s="57"/>
-      <c r="AX8" s="61"/>
-      <c r="AY8" s="55"/>
-      <c r="AZ8" s="56"/>
-      <c r="BA8" s="56"/>
-      <c r="BB8" s="57"/>
-      <c r="BC8" s="61"/>
-      <c r="BD8" s="55"/>
-      <c r="BE8" s="56"/>
-      <c r="BF8" s="56"/>
-      <c r="BG8" s="57"/>
-      <c r="BH8" s="61"/>
-      <c r="BI8" s="55"/>
-      <c r="BJ8" s="56"/>
-      <c r="BK8" s="56"/>
-      <c r="BL8" s="57"/>
-      <c r="BM8" s="61"/>
-      <c r="BN8" s="55"/>
-      <c r="BO8" s="56"/>
-      <c r="BP8" s="56"/>
-      <c r="BQ8" s="57"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="43"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="42"/>
+      <c r="AK8" s="43"/>
+      <c r="AL8" s="43"/>
+      <c r="AM8" s="44"/>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="42"/>
+      <c r="AP8" s="43"/>
+      <c r="AQ8" s="43"/>
+      <c r="AR8" s="44"/>
+      <c r="AS8" s="39"/>
+      <c r="AT8" s="42"/>
+      <c r="AU8" s="43"/>
+      <c r="AV8" s="43"/>
+      <c r="AW8" s="44"/>
+      <c r="AX8" s="39"/>
+      <c r="AY8" s="42"/>
+      <c r="AZ8" s="43"/>
+      <c r="BA8" s="43"/>
+      <c r="BB8" s="44"/>
+      <c r="BC8" s="39"/>
+      <c r="BD8" s="42"/>
+      <c r="BE8" s="43"/>
+      <c r="BF8" s="43"/>
+      <c r="BG8" s="44"/>
+      <c r="BH8" s="39"/>
+      <c r="BI8" s="42"/>
+      <c r="BJ8" s="43"/>
+      <c r="BK8" s="43"/>
+      <c r="BL8" s="44"/>
+      <c r="BM8" s="39"/>
+      <c r="BN8" s="42"/>
+      <c r="BO8" s="43"/>
+      <c r="BP8" s="43"/>
+      <c r="BQ8" s="44"/>
       <c r="BR8" s="10"/>
       <c r="BS8" s="10"/>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="64"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="61"/>
+      <c r="J9" s="39"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="61"/>
+      <c r="O9" s="39"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="67"/>
+      <c r="T9" s="50"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="61"/>
+      <c r="Y9" s="39"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
-      <c r="AD9" s="61"/>
+      <c r="AD9" s="39"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
-      <c r="AI9" s="61"/>
+      <c r="AI9" s="39"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
-      <c r="AN9" s="61"/>
+      <c r="AN9" s="39"/>
       <c r="AO9" s="2"/>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
-      <c r="AS9" s="61"/>
+      <c r="AS9" s="39"/>
       <c r="AT9" s="2"/>
       <c r="AU9" s="1"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
-      <c r="AX9" s="61"/>
+      <c r="AX9" s="39"/>
       <c r="AY9" s="2"/>
       <c r="AZ9" s="1"/>
       <c r="BA9" s="2"/>
       <c r="BB9" s="2"/>
-      <c r="BC9" s="61"/>
+      <c r="BC9" s="39"/>
       <c r="BD9" s="2"/>
       <c r="BE9" s="1"/>
       <c r="BF9" s="2"/>
       <c r="BG9" s="2"/>
-      <c r="BH9" s="61"/>
+      <c r="BH9" s="39"/>
       <c r="BI9" s="2"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="2"/>
       <c r="BL9" s="2"/>
-      <c r="BM9" s="61"/>
+      <c r="BM9" s="39"/>
       <c r="BN9" s="2"/>
       <c r="BO9" s="1"/>
       <c r="BP9" s="2"/>
@@ -1963,144 +1963,144 @@
     <row r="10" spans="1:71" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="57"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="56"/>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="57"/>
-      <c r="AI10" s="61"/>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="56"/>
-      <c r="AL10" s="56"/>
-      <c r="AM10" s="57"/>
-      <c r="AN10" s="61"/>
-      <c r="AO10" s="55"/>
-      <c r="AP10" s="56"/>
-      <c r="AQ10" s="56"/>
-      <c r="AR10" s="57"/>
-      <c r="AS10" s="61"/>
-      <c r="AT10" s="55"/>
-      <c r="AU10" s="56"/>
-      <c r="AV10" s="56"/>
-      <c r="AW10" s="57"/>
-      <c r="AX10" s="61"/>
-      <c r="AY10" s="55"/>
-      <c r="AZ10" s="56"/>
-      <c r="BA10" s="56"/>
-      <c r="BB10" s="57"/>
-      <c r="BC10" s="61"/>
-      <c r="BD10" s="55"/>
-      <c r="BE10" s="56"/>
-      <c r="BF10" s="56"/>
-      <c r="BG10" s="57"/>
-      <c r="BH10" s="61"/>
-      <c r="BI10" s="55"/>
-      <c r="BJ10" s="56"/>
-      <c r="BK10" s="56"/>
-      <c r="BL10" s="57"/>
-      <c r="BM10" s="61"/>
-      <c r="BN10" s="55"/>
-      <c r="BO10" s="56"/>
-      <c r="BP10" s="56"/>
-      <c r="BQ10" s="57"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="43"/>
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="42"/>
+      <c r="AK10" s="43"/>
+      <c r="AL10" s="43"/>
+      <c r="AM10" s="44"/>
+      <c r="AN10" s="39"/>
+      <c r="AO10" s="42"/>
+      <c r="AP10" s="43"/>
+      <c r="AQ10" s="43"/>
+      <c r="AR10" s="44"/>
+      <c r="AS10" s="39"/>
+      <c r="AT10" s="42"/>
+      <c r="AU10" s="43"/>
+      <c r="AV10" s="43"/>
+      <c r="AW10" s="44"/>
+      <c r="AX10" s="39"/>
+      <c r="AY10" s="42"/>
+      <c r="AZ10" s="43"/>
+      <c r="BA10" s="43"/>
+      <c r="BB10" s="44"/>
+      <c r="BC10" s="39"/>
+      <c r="BD10" s="42"/>
+      <c r="BE10" s="43"/>
+      <c r="BF10" s="43"/>
+      <c r="BG10" s="44"/>
+      <c r="BH10" s="39"/>
+      <c r="BI10" s="42"/>
+      <c r="BJ10" s="43"/>
+      <c r="BK10" s="43"/>
+      <c r="BL10" s="44"/>
+      <c r="BM10" s="39"/>
+      <c r="BN10" s="42"/>
+      <c r="BO10" s="43"/>
+      <c r="BP10" s="43"/>
+      <c r="BQ10" s="44"/>
       <c r="BR10" s="10"/>
       <c r="BS10" s="10"/>
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="64"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="61"/>
+      <c r="J11" s="39"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="1"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="61"/>
+      <c r="O11" s="39"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="67"/>
+      <c r="T11" s="50"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="61"/>
+      <c r="Y11" s="39"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="61"/>
+      <c r="AD11" s="39"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
-      <c r="AI11" s="61"/>
+      <c r="AI11" s="39"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
-      <c r="AN11" s="61"/>
+      <c r="AN11" s="39"/>
       <c r="AO11" s="2"/>
       <c r="AP11" s="1"/>
       <c r="AQ11" s="2"/>
       <c r="AR11" s="2"/>
-      <c r="AS11" s="61"/>
+      <c r="AS11" s="39"/>
       <c r="AT11" s="2"/>
       <c r="AU11" s="1"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
-      <c r="AX11" s="61"/>
+      <c r="AX11" s="39"/>
       <c r="AY11" s="2"/>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="2"/>
       <c r="BB11" s="2"/>
-      <c r="BC11" s="61"/>
+      <c r="BC11" s="39"/>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
       <c r="BG11" s="1"/>
-      <c r="BH11" s="61"/>
+      <c r="BH11" s="39"/>
       <c r="BI11" s="2"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="2"/>
       <c r="BL11" s="2"/>
-      <c r="BM11" s="61"/>
+      <c r="BM11" s="39"/>
       <c r="BN11" s="2"/>
       <c r="BO11" s="1"/>
       <c r="BP11" s="2"/>
@@ -2111,144 +2111,144 @@
     <row r="12" spans="1:71" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="57"/>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="57"/>
-      <c r="AI12" s="61"/>
-      <c r="AJ12" s="55"/>
-      <c r="AK12" s="56"/>
-      <c r="AL12" s="56"/>
-      <c r="AM12" s="57"/>
-      <c r="AN12" s="61"/>
-      <c r="AO12" s="55"/>
-      <c r="AP12" s="56"/>
-      <c r="AQ12" s="56"/>
-      <c r="AR12" s="57"/>
-      <c r="AS12" s="61"/>
-      <c r="AT12" s="55"/>
-      <c r="AU12" s="56"/>
-      <c r="AV12" s="56"/>
-      <c r="AW12" s="57"/>
-      <c r="AX12" s="61"/>
-      <c r="AY12" s="55"/>
-      <c r="AZ12" s="56"/>
-      <c r="BA12" s="56"/>
-      <c r="BB12" s="57"/>
-      <c r="BC12" s="61"/>
-      <c r="BD12" s="55"/>
-      <c r="BE12" s="56"/>
-      <c r="BF12" s="56"/>
-      <c r="BG12" s="57"/>
-      <c r="BH12" s="61"/>
-      <c r="BI12" s="55"/>
-      <c r="BJ12" s="56"/>
-      <c r="BK12" s="56"/>
-      <c r="BL12" s="57"/>
-      <c r="BM12" s="61"/>
-      <c r="BN12" s="55"/>
-      <c r="BO12" s="56"/>
-      <c r="BP12" s="56"/>
-      <c r="BQ12" s="57"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="43"/>
+      <c r="AH12" s="44"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="43"/>
+      <c r="AL12" s="43"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="43"/>
+      <c r="AQ12" s="43"/>
+      <c r="AR12" s="44"/>
+      <c r="AS12" s="39"/>
+      <c r="AT12" s="42"/>
+      <c r="AU12" s="43"/>
+      <c r="AV12" s="43"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="39"/>
+      <c r="AY12" s="42"/>
+      <c r="AZ12" s="43"/>
+      <c r="BA12" s="43"/>
+      <c r="BB12" s="44"/>
+      <c r="BC12" s="39"/>
+      <c r="BD12" s="42"/>
+      <c r="BE12" s="43"/>
+      <c r="BF12" s="43"/>
+      <c r="BG12" s="44"/>
+      <c r="BH12" s="39"/>
+      <c r="BI12" s="42"/>
+      <c r="BJ12" s="43"/>
+      <c r="BK12" s="43"/>
+      <c r="BL12" s="44"/>
+      <c r="BM12" s="39"/>
+      <c r="BN12" s="42"/>
+      <c r="BO12" s="43"/>
+      <c r="BP12" s="43"/>
+      <c r="BQ12" s="44"/>
       <c r="BR12" s="10"/>
       <c r="BS12" s="10"/>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="64"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="61"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="61"/>
+      <c r="O13" s="39"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="67"/>
+      <c r="T13" s="50"/>
       <c r="U13" s="2"/>
       <c r="V13" s="1"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="61"/>
+      <c r="Y13" s="39"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
-      <c r="AD13" s="61"/>
+      <c r="AD13" s="39"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="2"/>
-      <c r="AI13" s="61"/>
+      <c r="AI13" s="39"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
-      <c r="AN13" s="61"/>
+      <c r="AN13" s="39"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
-      <c r="AS13" s="61"/>
+      <c r="AS13" s="39"/>
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
-      <c r="AX13" s="61"/>
-      <c r="AY13" s="76"/>
-      <c r="AZ13" s="77"/>
-      <c r="BA13" s="76"/>
-      <c r="BB13" s="76"/>
-      <c r="BC13" s="61"/>
+      <c r="AX13" s="39"/>
+      <c r="AY13" s="11"/>
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="11"/>
+      <c r="BB13" s="11"/>
+      <c r="BC13" s="39"/>
       <c r="BD13" s="2"/>
       <c r="BE13" s="2"/>
       <c r="BF13" s="2"/>
       <c r="BG13" s="2"/>
-      <c r="BH13" s="61"/>
+      <c r="BH13" s="39"/>
       <c r="BI13" s="2"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="2"/>
       <c r="BL13" s="2"/>
-      <c r="BM13" s="61"/>
+      <c r="BM13" s="39"/>
       <c r="BN13" s="2"/>
       <c r="BO13" s="1"/>
       <c r="BP13" s="2"/>
@@ -2259,144 +2259,144 @@
     <row r="14" spans="1:71" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="57"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="56"/>
-      <c r="AH14" s="57"/>
-      <c r="AI14" s="61"/>
-      <c r="AJ14" s="55"/>
-      <c r="AK14" s="56"/>
-      <c r="AL14" s="56"/>
-      <c r="AM14" s="57"/>
-      <c r="AN14" s="61"/>
-      <c r="AO14" s="55"/>
-      <c r="AP14" s="56"/>
-      <c r="AQ14" s="56"/>
-      <c r="AR14" s="57"/>
-      <c r="AS14" s="61"/>
-      <c r="AT14" s="55"/>
-      <c r="AU14" s="56"/>
-      <c r="AV14" s="56"/>
-      <c r="AW14" s="57"/>
-      <c r="AX14" s="61"/>
-      <c r="AY14" s="55"/>
-      <c r="AZ14" s="56"/>
-      <c r="BA14" s="56"/>
-      <c r="BB14" s="57"/>
-      <c r="BC14" s="61"/>
-      <c r="BD14" s="55"/>
-      <c r="BE14" s="56"/>
-      <c r="BF14" s="56"/>
-      <c r="BG14" s="57"/>
-      <c r="BH14" s="61"/>
-      <c r="BI14" s="55"/>
-      <c r="BJ14" s="56"/>
-      <c r="BK14" s="56"/>
-      <c r="BL14" s="57"/>
-      <c r="BM14" s="61"/>
-      <c r="BN14" s="55"/>
-      <c r="BO14" s="56"/>
-      <c r="BP14" s="56"/>
-      <c r="BQ14" s="57"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="43"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="42"/>
+      <c r="AK14" s="43"/>
+      <c r="AL14" s="43"/>
+      <c r="AM14" s="44"/>
+      <c r="AN14" s="39"/>
+      <c r="AO14" s="42"/>
+      <c r="AP14" s="43"/>
+      <c r="AQ14" s="43"/>
+      <c r="AR14" s="44"/>
+      <c r="AS14" s="39"/>
+      <c r="AT14" s="42"/>
+      <c r="AU14" s="43"/>
+      <c r="AV14" s="43"/>
+      <c r="AW14" s="44"/>
+      <c r="AX14" s="39"/>
+      <c r="AY14" s="42"/>
+      <c r="AZ14" s="43"/>
+      <c r="BA14" s="43"/>
+      <c r="BB14" s="44"/>
+      <c r="BC14" s="39"/>
+      <c r="BD14" s="42"/>
+      <c r="BE14" s="43"/>
+      <c r="BF14" s="43"/>
+      <c r="BG14" s="44"/>
+      <c r="BH14" s="39"/>
+      <c r="BI14" s="42"/>
+      <c r="BJ14" s="43"/>
+      <c r="BK14" s="43"/>
+      <c r="BL14" s="44"/>
+      <c r="BM14" s="39"/>
+      <c r="BN14" s="42"/>
+      <c r="BO14" s="43"/>
+      <c r="BP14" s="43"/>
+      <c r="BQ14" s="44"/>
       <c r="BR14" s="10"/>
       <c r="BS14" s="10"/>
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="64"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="61"/>
+      <c r="J15" s="39"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="61"/>
+      <c r="O15" s="39"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="67"/>
+      <c r="T15" s="50"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="61"/>
+      <c r="Y15" s="39"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="61"/>
+      <c r="AD15" s="39"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
-      <c r="AI15" s="61"/>
-      <c r="AJ15" s="1"/>
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="2"/>
       <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
+      <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
-      <c r="AN15" s="61"/>
+      <c r="AN15" s="39"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
       <c r="AR15" s="2"/>
-      <c r="AS15" s="61"/>
+      <c r="AS15" s="39"/>
       <c r="AT15" s="2"/>
       <c r="AU15" s="1"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
-      <c r="AX15" s="61"/>
+      <c r="AX15" s="39"/>
       <c r="AY15" s="2"/>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="2"/>
       <c r="BB15" s="2"/>
-      <c r="BC15" s="61"/>
+      <c r="BC15" s="39"/>
       <c r="BD15" s="2"/>
       <c r="BE15" s="2"/>
       <c r="BF15" s="2"/>
       <c r="BG15" s="2"/>
-      <c r="BH15" s="61"/>
+      <c r="BH15" s="39"/>
       <c r="BI15" s="2"/>
       <c r="BJ15" s="2"/>
       <c r="BK15" s="2"/>
       <c r="BL15" s="2"/>
-      <c r="BM15" s="61"/>
+      <c r="BM15" s="39"/>
       <c r="BN15" s="2"/>
       <c r="BO15" s="2"/>
       <c r="BP15" s="2"/>
@@ -2405,585 +2405,585 @@
       <c r="BS15" s="7"/>
     </row>
     <row r="16" spans="1:71" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="62"/>
-      <c r="AE16" s="55"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="57"/>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="55"/>
-      <c r="AK16" s="56"/>
-      <c r="AL16" s="56"/>
-      <c r="AM16" s="57"/>
-      <c r="AN16" s="62"/>
-      <c r="AO16" s="55"/>
-      <c r="AP16" s="56"/>
-      <c r="AQ16" s="56"/>
-      <c r="AR16" s="57"/>
-      <c r="AS16" s="62"/>
-      <c r="AT16" s="55"/>
-      <c r="AU16" s="56"/>
-      <c r="AV16" s="56"/>
-      <c r="AW16" s="57"/>
-      <c r="AX16" s="62"/>
-      <c r="AY16" s="55"/>
-      <c r="AZ16" s="56"/>
-      <c r="BA16" s="56"/>
-      <c r="BB16" s="57"/>
-      <c r="BC16" s="62"/>
-      <c r="BD16" s="55"/>
-      <c r="BE16" s="56"/>
-      <c r="BF16" s="56"/>
-      <c r="BG16" s="57"/>
-      <c r="BH16" s="62"/>
-      <c r="BI16" s="55"/>
-      <c r="BJ16" s="56"/>
-      <c r="BK16" s="56"/>
-      <c r="BL16" s="57"/>
-      <c r="BM16" s="62"/>
-      <c r="BN16" s="55"/>
-      <c r="BO16" s="56"/>
-      <c r="BP16" s="56"/>
-      <c r="BQ16" s="57"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="43"/>
+      <c r="AG16" s="43"/>
+      <c r="AH16" s="44"/>
+      <c r="AI16" s="40"/>
+      <c r="AJ16" s="42"/>
+      <c r="AK16" s="43"/>
+      <c r="AL16" s="43"/>
+      <c r="AM16" s="44"/>
+      <c r="AN16" s="40"/>
+      <c r="AO16" s="42"/>
+      <c r="AP16" s="43"/>
+      <c r="AQ16" s="43"/>
+      <c r="AR16" s="44"/>
+      <c r="AS16" s="40"/>
+      <c r="AT16" s="42"/>
+      <c r="AU16" s="43"/>
+      <c r="AV16" s="43"/>
+      <c r="AW16" s="44"/>
+      <c r="AX16" s="40"/>
+      <c r="AY16" s="42"/>
+      <c r="AZ16" s="43"/>
+      <c r="BA16" s="43"/>
+      <c r="BB16" s="44"/>
+      <c r="BC16" s="40"/>
+      <c r="BD16" s="42"/>
+      <c r="BE16" s="43"/>
+      <c r="BF16" s="43"/>
+      <c r="BG16" s="44"/>
+      <c r="BH16" s="40"/>
+      <c r="BI16" s="42"/>
+      <c r="BJ16" s="43"/>
+      <c r="BK16" s="43"/>
+      <c r="BL16" s="44"/>
+      <c r="BM16" s="40"/>
+      <c r="BN16" s="42"/>
+      <c r="BO16" s="43"/>
+      <c r="BP16" s="43"/>
+      <c r="BQ16" s="44"/>
     </row>
     <row r="17" spans="3:71" x14ac:dyDescent="0.25">
       <c r="BR17" s="7"/>
       <c r="BS17" s="7"/>
     </row>
     <row r="18" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="43" t="s">
+      <c r="D18" s="55"/>
+      <c r="E18" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="44"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="44"/>
-      <c r="AF18" s="44"/>
-      <c r="AG18" s="44"/>
-      <c r="AH18" s="44"/>
-      <c r="AI18" s="44"/>
-      <c r="AJ18" s="44"/>
-      <c r="AK18" s="44"/>
-      <c r="AL18" s="44"/>
-      <c r="AM18" s="44"/>
-      <c r="AN18" s="44"/>
-      <c r="AO18" s="44"/>
-      <c r="AP18" s="44"/>
-      <c r="AQ18" s="44"/>
-      <c r="AR18" s="44"/>
-      <c r="AS18" s="44"/>
-      <c r="AT18" s="44"/>
-      <c r="AU18" s="44"/>
-      <c r="AV18" s="44"/>
-      <c r="AW18" s="44"/>
-      <c r="AX18" s="45"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="67"/>
+      <c r="AC18" s="67"/>
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="67"/>
+      <c r="AF18" s="67"/>
+      <c r="AG18" s="67"/>
+      <c r="AH18" s="67"/>
+      <c r="AI18" s="67"/>
+      <c r="AJ18" s="67"/>
+      <c r="AK18" s="67"/>
+      <c r="AL18" s="67"/>
+      <c r="AM18" s="67"/>
+      <c r="AN18" s="67"/>
+      <c r="AO18" s="67"/>
+      <c r="AP18" s="67"/>
+      <c r="AQ18" s="67"/>
+      <c r="AR18" s="67"/>
+      <c r="AS18" s="67"/>
+      <c r="AT18" s="67"/>
+      <c r="AU18" s="67"/>
+      <c r="AV18" s="67"/>
+      <c r="AW18" s="67"/>
+      <c r="AX18" s="68"/>
     </row>
     <row r="19" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="47"/>
-      <c r="AJ19" s="47"/>
-      <c r="AK19" s="47"/>
-      <c r="AL19" s="47"/>
-      <c r="AM19" s="47"/>
-      <c r="AN19" s="47"/>
-      <c r="AO19" s="47"/>
-      <c r="AP19" s="47"/>
-      <c r="AQ19" s="47"/>
-      <c r="AR19" s="47"/>
-      <c r="AS19" s="47"/>
-      <c r="AT19" s="47"/>
-      <c r="AU19" s="47"/>
-      <c r="AV19" s="47"/>
-      <c r="AW19" s="47"/>
-      <c r="AX19" s="48"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="70"/>
+      <c r="AD19" s="70"/>
+      <c r="AE19" s="70"/>
+      <c r="AF19" s="70"/>
+      <c r="AG19" s="70"/>
+      <c r="AH19" s="70"/>
+      <c r="AI19" s="70"/>
+      <c r="AJ19" s="70"/>
+      <c r="AK19" s="70"/>
+      <c r="AL19" s="70"/>
+      <c r="AM19" s="70"/>
+      <c r="AN19" s="70"/>
+      <c r="AO19" s="70"/>
+      <c r="AP19" s="70"/>
+      <c r="AQ19" s="70"/>
+      <c r="AR19" s="70"/>
+      <c r="AS19" s="70"/>
+      <c r="AT19" s="70"/>
+      <c r="AU19" s="70"/>
+      <c r="AV19" s="70"/>
+      <c r="AW19" s="70"/>
+      <c r="AX19" s="71"/>
     </row>
     <row r="20" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="49" t="s">
+      <c r="D20" s="55"/>
+      <c r="E20" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="50"/>
-      <c r="AE20" s="50"/>
-      <c r="AF20" s="50"/>
-      <c r="AG20" s="50"/>
-      <c r="AH20" s="50"/>
-      <c r="AI20" s="50"/>
-      <c r="AJ20" s="50"/>
-      <c r="AK20" s="50"/>
-      <c r="AL20" s="50"/>
-      <c r="AM20" s="50"/>
-      <c r="AN20" s="50"/>
-      <c r="AO20" s="50"/>
-      <c r="AP20" s="50"/>
-      <c r="AQ20" s="50"/>
-      <c r="AR20" s="50"/>
-      <c r="AS20" s="50"/>
-      <c r="AT20" s="50"/>
-      <c r="AU20" s="50"/>
-      <c r="AV20" s="50"/>
-      <c r="AW20" s="50"/>
-      <c r="AX20" s="51"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="73"/>
+      <c r="AB20" s="73"/>
+      <c r="AC20" s="73"/>
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="73"/>
+      <c r="AF20" s="73"/>
+      <c r="AG20" s="73"/>
+      <c r="AH20" s="73"/>
+      <c r="AI20" s="73"/>
+      <c r="AJ20" s="73"/>
+      <c r="AK20" s="73"/>
+      <c r="AL20" s="73"/>
+      <c r="AM20" s="73"/>
+      <c r="AN20" s="73"/>
+      <c r="AO20" s="73"/>
+      <c r="AP20" s="73"/>
+      <c r="AQ20" s="73"/>
+      <c r="AR20" s="73"/>
+      <c r="AS20" s="73"/>
+      <c r="AT20" s="73"/>
+      <c r="AU20" s="73"/>
+      <c r="AV20" s="73"/>
+      <c r="AW20" s="73"/>
+      <c r="AX20" s="74"/>
     </row>
     <row r="21" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="53"/>
-      <c r="AD21" s="53"/>
-      <c r="AE21" s="53"/>
-      <c r="AF21" s="53"/>
-      <c r="AG21" s="53"/>
-      <c r="AH21" s="53"/>
-      <c r="AI21" s="53"/>
-      <c r="AJ21" s="53"/>
-      <c r="AK21" s="53"/>
-      <c r="AL21" s="53"/>
-      <c r="AM21" s="53"/>
-      <c r="AN21" s="53"/>
-      <c r="AO21" s="53"/>
-      <c r="AP21" s="53"/>
-      <c r="AQ21" s="53"/>
-      <c r="AR21" s="53"/>
-      <c r="AS21" s="53"/>
-      <c r="AT21" s="53"/>
-      <c r="AU21" s="53"/>
-      <c r="AV21" s="53"/>
-      <c r="AW21" s="53"/>
-      <c r="AX21" s="54"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
+      <c r="U21" s="76"/>
+      <c r="V21" s="76"/>
+      <c r="W21" s="76"/>
+      <c r="X21" s="76"/>
+      <c r="Y21" s="76"/>
+      <c r="Z21" s="76"/>
+      <c r="AA21" s="76"/>
+      <c r="AB21" s="76"/>
+      <c r="AC21" s="76"/>
+      <c r="AD21" s="76"/>
+      <c r="AE21" s="76"/>
+      <c r="AF21" s="76"/>
+      <c r="AG21" s="76"/>
+      <c r="AH21" s="76"/>
+      <c r="AI21" s="76"/>
+      <c r="AJ21" s="76"/>
+      <c r="AK21" s="76"/>
+      <c r="AL21" s="76"/>
+      <c r="AM21" s="76"/>
+      <c r="AN21" s="76"/>
+      <c r="AO21" s="76"/>
+      <c r="AP21" s="76"/>
+      <c r="AQ21" s="76"/>
+      <c r="AR21" s="76"/>
+      <c r="AS21" s="76"/>
+      <c r="AT21" s="76"/>
+      <c r="AU21" s="76"/>
+      <c r="AV21" s="76"/>
+      <c r="AW21" s="76"/>
+      <c r="AX21" s="77"/>
     </row>
     <row r="22" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="36"/>
-      <c r="AC22" s="36"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="36"/>
-      <c r="AF22" s="36"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="36"/>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="36"/>
-      <c r="AK22" s="36"/>
-      <c r="AL22" s="36"/>
-      <c r="AM22" s="36"/>
-      <c r="AN22" s="36"/>
-      <c r="AO22" s="36"/>
-      <c r="AP22" s="36"/>
-      <c r="AQ22" s="36"/>
-      <c r="AR22" s="36"/>
-      <c r="AS22" s="36"/>
-      <c r="AT22" s="36"/>
-      <c r="AU22" s="36"/>
-      <c r="AV22" s="36"/>
-      <c r="AW22" s="36"/>
-      <c r="AX22" s="37"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="59"/>
+      <c r="AH22" s="59"/>
+      <c r="AI22" s="59"/>
+      <c r="AJ22" s="59"/>
+      <c r="AK22" s="59"/>
+      <c r="AL22" s="59"/>
+      <c r="AM22" s="59"/>
+      <c r="AN22" s="59"/>
+      <c r="AO22" s="59"/>
+      <c r="AP22" s="59"/>
+      <c r="AQ22" s="59"/>
+      <c r="AR22" s="59"/>
+      <c r="AS22" s="59"/>
+      <c r="AT22" s="59"/>
+      <c r="AU22" s="59"/>
+      <c r="AV22" s="59"/>
+      <c r="AW22" s="59"/>
+      <c r="AX22" s="60"/>
     </row>
     <row r="23" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C23" s="33"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="39"/>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="39"/>
-      <c r="AH23" s="39"/>
-      <c r="AI23" s="39"/>
-      <c r="AJ23" s="39"/>
-      <c r="AK23" s="39"/>
-      <c r="AL23" s="39"/>
-      <c r="AM23" s="39"/>
-      <c r="AN23" s="39"/>
-      <c r="AO23" s="39"/>
-      <c r="AP23" s="39"/>
-      <c r="AQ23" s="39"/>
-      <c r="AR23" s="39"/>
-      <c r="AS23" s="39"/>
-      <c r="AT23" s="39"/>
-      <c r="AU23" s="39"/>
-      <c r="AV23" s="39"/>
-      <c r="AW23" s="39"/>
-      <c r="AX23" s="40"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="62"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="62"/>
+      <c r="AJ23" s="62"/>
+      <c r="AK23" s="62"/>
+      <c r="AL23" s="62"/>
+      <c r="AM23" s="62"/>
+      <c r="AN23" s="62"/>
+      <c r="AO23" s="62"/>
+      <c r="AP23" s="62"/>
+      <c r="AQ23" s="62"/>
+      <c r="AR23" s="62"/>
+      <c r="AS23" s="62"/>
+      <c r="AT23" s="62"/>
+      <c r="AU23" s="62"/>
+      <c r="AV23" s="62"/>
+      <c r="AW23" s="62"/>
+      <c r="AX23" s="63"/>
     </row>
     <row r="24" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="36"/>
-      <c r="AK24" s="36"/>
-      <c r="AL24" s="36"/>
-      <c r="AM24" s="36"/>
-      <c r="AN24" s="36"/>
-      <c r="AO24" s="36"/>
-      <c r="AP24" s="36"/>
-      <c r="AQ24" s="36"/>
-      <c r="AR24" s="36"/>
-      <c r="AS24" s="36"/>
-      <c r="AT24" s="36"/>
-      <c r="AU24" s="36"/>
-      <c r="AV24" s="36"/>
-      <c r="AW24" s="36"/>
-      <c r="AX24" s="37"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="59"/>
+      <c r="AH24" s="59"/>
+      <c r="AI24" s="59"/>
+      <c r="AJ24" s="59"/>
+      <c r="AK24" s="59"/>
+      <c r="AL24" s="59"/>
+      <c r="AM24" s="59"/>
+      <c r="AN24" s="59"/>
+      <c r="AO24" s="59"/>
+      <c r="AP24" s="59"/>
+      <c r="AQ24" s="59"/>
+      <c r="AR24" s="59"/>
+      <c r="AS24" s="59"/>
+      <c r="AT24" s="59"/>
+      <c r="AU24" s="59"/>
+      <c r="AV24" s="59"/>
+      <c r="AW24" s="59"/>
+      <c r="AX24" s="60"/>
     </row>
     <row r="25" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="39"/>
-      <c r="AE25" s="39"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="39"/>
-      <c r="AH25" s="39"/>
-      <c r="AI25" s="39"/>
-      <c r="AJ25" s="39"/>
-      <c r="AK25" s="39"/>
-      <c r="AL25" s="39"/>
-      <c r="AM25" s="39"/>
-      <c r="AN25" s="39"/>
-      <c r="AO25" s="39"/>
-      <c r="AP25" s="39"/>
-      <c r="AQ25" s="39"/>
-      <c r="AR25" s="39"/>
-      <c r="AS25" s="39"/>
-      <c r="AT25" s="39"/>
-      <c r="AU25" s="39"/>
-      <c r="AV25" s="39"/>
-      <c r="AW25" s="39"/>
-      <c r="AX25" s="40"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="62"/>
+      <c r="AD25" s="62"/>
+      <c r="AE25" s="62"/>
+      <c r="AF25" s="62"/>
+      <c r="AG25" s="62"/>
+      <c r="AH25" s="62"/>
+      <c r="AI25" s="62"/>
+      <c r="AJ25" s="62"/>
+      <c r="AK25" s="62"/>
+      <c r="AL25" s="62"/>
+      <c r="AM25" s="62"/>
+      <c r="AN25" s="62"/>
+      <c r="AO25" s="62"/>
+      <c r="AP25" s="62"/>
+      <c r="AQ25" s="62"/>
+      <c r="AR25" s="62"/>
+      <c r="AS25" s="62"/>
+      <c r="AT25" s="62"/>
+      <c r="AU25" s="62"/>
+      <c r="AV25" s="62"/>
+      <c r="AW25" s="62"/>
+      <c r="AX25" s="63"/>
     </row>
     <row r="26" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="36"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
-      <c r="AI26" s="36"/>
-      <c r="AJ26" s="36"/>
-      <c r="AK26" s="36"/>
-      <c r="AL26" s="36"/>
-      <c r="AM26" s="36"/>
-      <c r="AN26" s="36"/>
-      <c r="AO26" s="36"/>
-      <c r="AP26" s="36"/>
-      <c r="AQ26" s="36"/>
-      <c r="AR26" s="36"/>
-      <c r="AS26" s="36"/>
-      <c r="AT26" s="36"/>
-      <c r="AU26" s="36"/>
-      <c r="AV26" s="36"/>
-      <c r="AW26" s="36"/>
-      <c r="AX26" s="37"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="59"/>
+      <c r="AH26" s="59"/>
+      <c r="AI26" s="59"/>
+      <c r="AJ26" s="59"/>
+      <c r="AK26" s="59"/>
+      <c r="AL26" s="59"/>
+      <c r="AM26" s="59"/>
+      <c r="AN26" s="59"/>
+      <c r="AO26" s="59"/>
+      <c r="AP26" s="59"/>
+      <c r="AQ26" s="59"/>
+      <c r="AR26" s="59"/>
+      <c r="AS26" s="59"/>
+      <c r="AT26" s="59"/>
+      <c r="AU26" s="59"/>
+      <c r="AV26" s="59"/>
+      <c r="AW26" s="59"/>
+      <c r="AX26" s="60"/>
     </row>
     <row r="27" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="39"/>
-      <c r="AH27" s="39"/>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="39"/>
-      <c r="AK27" s="39"/>
-      <c r="AL27" s="39"/>
-      <c r="AM27" s="39"/>
-      <c r="AN27" s="39"/>
-      <c r="AO27" s="39"/>
-      <c r="AP27" s="39"/>
-      <c r="AQ27" s="39"/>
-      <c r="AR27" s="39"/>
-      <c r="AS27" s="39"/>
-      <c r="AT27" s="39"/>
-      <c r="AU27" s="39"/>
-      <c r="AV27" s="39"/>
-      <c r="AW27" s="39"/>
-      <c r="AX27" s="40"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="62"/>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="62"/>
+      <c r="AJ27" s="62"/>
+      <c r="AK27" s="62"/>
+      <c r="AL27" s="62"/>
+      <c r="AM27" s="62"/>
+      <c r="AN27" s="62"/>
+      <c r="AO27" s="62"/>
+      <c r="AP27" s="62"/>
+      <c r="AQ27" s="62"/>
+      <c r="AR27" s="62"/>
+      <c r="AS27" s="62"/>
+      <c r="AT27" s="62"/>
+      <c r="AU27" s="62"/>
+      <c r="AV27" s="62"/>
+      <c r="AW27" s="62"/>
+      <c r="AX27" s="63"/>
     </row>
     <row r="32" spans="3:71" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
@@ -2992,6 +2992,95 @@
     </row>
   </sheetData>
   <mergeCells count="113">
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:AX25"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:AX27"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E18:AX19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:AX21"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:AX23"/>
+    <mergeCell ref="AT8:AW8"/>
+    <mergeCell ref="AJ8:AM8"/>
+    <mergeCell ref="AO8:AR8"/>
+    <mergeCell ref="AO10:AR10"/>
+    <mergeCell ref="AJ10:AM10"/>
+    <mergeCell ref="AJ12:AM12"/>
+    <mergeCell ref="AO12:AR12"/>
+    <mergeCell ref="AE8:AH8"/>
+    <mergeCell ref="AE10:AH10"/>
+    <mergeCell ref="AE12:AH12"/>
+    <mergeCell ref="AE14:AH14"/>
+    <mergeCell ref="AE16:AH16"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="AO14:AR14"/>
+    <mergeCell ref="AJ14:AM14"/>
+    <mergeCell ref="AJ16:AM16"/>
+    <mergeCell ref="AO16:AR16"/>
+    <mergeCell ref="BI8:BL8"/>
+    <mergeCell ref="BN8:BQ8"/>
+    <mergeCell ref="BI10:BL10"/>
+    <mergeCell ref="BN10:BQ10"/>
+    <mergeCell ref="BD10:BG10"/>
+    <mergeCell ref="AY10:BB10"/>
+    <mergeCell ref="AT10:AW10"/>
+    <mergeCell ref="BM5:BM16"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="BN5:BQ5"/>
+    <mergeCell ref="BD16:BG16"/>
+    <mergeCell ref="BI16:BL16"/>
+    <mergeCell ref="BN16:BQ16"/>
+    <mergeCell ref="AT16:AW16"/>
+    <mergeCell ref="AY16:BB16"/>
+    <mergeCell ref="AT12:AW12"/>
+    <mergeCell ref="AY12:BB12"/>
+    <mergeCell ref="BD12:BG12"/>
+    <mergeCell ref="BI12:BL12"/>
+    <mergeCell ref="BN12:BQ12"/>
+    <mergeCell ref="BN14:BQ14"/>
+    <mergeCell ref="BI14:BL14"/>
+    <mergeCell ref="BD14:BG14"/>
+    <mergeCell ref="AY14:BB14"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="Z16:AC16"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="AX5:AX16"/>
+    <mergeCell ref="BC5:BC16"/>
+    <mergeCell ref="BH5:BH16"/>
+    <mergeCell ref="Y5:Y16"/>
+    <mergeCell ref="BD5:BG5"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="AT5:AW5"/>
+    <mergeCell ref="AD5:AD16"/>
+    <mergeCell ref="AI5:AI16"/>
+    <mergeCell ref="AN5:AN16"/>
+    <mergeCell ref="AY8:BB8"/>
+    <mergeCell ref="BD8:BG8"/>
+    <mergeCell ref="AT14:AW14"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="O5:O16"/>
+    <mergeCell ref="J5:J16"/>
+    <mergeCell ref="T5:T16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="K12:N12"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="U5:X5"/>
     <mergeCell ref="AE5:AH5"/>
@@ -3016,95 +3105,6 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="O5:O16"/>
-    <mergeCell ref="J5:J16"/>
-    <mergeCell ref="T5:T16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="AX5:AX16"/>
-    <mergeCell ref="BC5:BC16"/>
-    <mergeCell ref="BH5:BH16"/>
-    <mergeCell ref="Y5:Y16"/>
-    <mergeCell ref="BD5:BG5"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="AT5:AW5"/>
-    <mergeCell ref="AD5:AD16"/>
-    <mergeCell ref="AI5:AI16"/>
-    <mergeCell ref="AN5:AN16"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="Z16:AC16"/>
-    <mergeCell ref="Z14:AC14"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="AY8:BB8"/>
-    <mergeCell ref="BD8:BG8"/>
-    <mergeCell ref="BI8:BL8"/>
-    <mergeCell ref="BN8:BQ8"/>
-    <mergeCell ref="BI10:BL10"/>
-    <mergeCell ref="BN10:BQ10"/>
-    <mergeCell ref="BD10:BG10"/>
-    <mergeCell ref="AY10:BB10"/>
-    <mergeCell ref="AT10:AW10"/>
-    <mergeCell ref="BM5:BM16"/>
-    <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="BN5:BQ5"/>
-    <mergeCell ref="BD16:BG16"/>
-    <mergeCell ref="BI16:BL16"/>
-    <mergeCell ref="BN16:BQ16"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="AO14:AR14"/>
-    <mergeCell ref="AJ14:AM14"/>
-    <mergeCell ref="AJ16:AM16"/>
-    <mergeCell ref="AO16:AR16"/>
-    <mergeCell ref="AT16:AW16"/>
-    <mergeCell ref="AY16:BB16"/>
-    <mergeCell ref="AT12:AW12"/>
-    <mergeCell ref="AY12:BB12"/>
-    <mergeCell ref="BD12:BG12"/>
-    <mergeCell ref="BI12:BL12"/>
-    <mergeCell ref="BN12:BQ12"/>
-    <mergeCell ref="BN14:BQ14"/>
-    <mergeCell ref="BI14:BL14"/>
-    <mergeCell ref="BD14:BG14"/>
-    <mergeCell ref="AY14:BB14"/>
-    <mergeCell ref="AT14:AW14"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:AX25"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:AX27"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E18:AX19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:AX21"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:AX23"/>
-    <mergeCell ref="AT8:AW8"/>
-    <mergeCell ref="AJ8:AM8"/>
-    <mergeCell ref="AO8:AR8"/>
-    <mergeCell ref="AO10:AR10"/>
-    <mergeCell ref="AJ10:AM10"/>
-    <mergeCell ref="AJ12:AM12"/>
-    <mergeCell ref="AO12:AR12"/>
-    <mergeCell ref="AE8:AH8"/>
-    <mergeCell ref="AE10:AH10"/>
-    <mergeCell ref="AE12:AH12"/>
-    <mergeCell ref="AE14:AH14"/>
-    <mergeCell ref="AE16:AH16"/>
-    <mergeCell ref="U8:X8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentos/RBAC.xlsx
+++ b/Documentos/RBAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestorRestauranteWEB\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CA4B37-15FD-47AC-81AE-DB3D5CF2C2F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA049D4-F978-42F5-BFE6-4BC05C95A182}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{844C1BEA-3A98-4A24-8BD3-ADFF3B39AE3F}"/>
+    <workbookView xWindow="0" yWindow="1905" windowWidth="28800" windowHeight="8160" activeTab="1" xr2:uid="{844C1BEA-3A98-4A24-8BD3-ADFF3B39AE3F}"/>
   </bookViews>
   <sheets>
     <sheet name="RULES" sheetId="1" r:id="rId1"/>
@@ -648,14 +648,35 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -663,42 +684,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,12 +708,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -723,27 +828,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -755,93 +842,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1171,170 +1171,170 @@
   <sheetData>
     <row r="4" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28" t="s">
+      <c r="F5" s="25"/>
+      <c r="G5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28" t="s">
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="29"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="21" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22" t="s">
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="23"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22" t="s">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="23"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="21" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22" t="s">
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="23"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="21" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22" t="s">
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="23"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="30" t="s">
         <v>44</v>
       </c>
@@ -1351,35 +1351,55 @@
       <c r="L15" s="32"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:I9"/>
@@ -1395,27 +1415,7 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C10:L10"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J7" r:id="rId1" xr:uid="{329CB05F-94CD-42AE-A5CF-0F7F122D6BE7}"/>
@@ -1432,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC630C6-D830-4A94-8FEE-8365932EB08B}">
   <dimension ref="A1:BS32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="BE29" sqref="BE29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,110 +1462,110 @@
     <row r="5" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="34" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="34" t="s">
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="41" t="s">
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="34" t="s">
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="34" t="s">
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="35" t="s">
+      <c r="AA5" s="65"/>
+      <c r="AB5" s="65"/>
+      <c r="AC5" s="65"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="35" t="s">
+      <c r="AF5" s="71"/>
+      <c r="AG5" s="71"/>
+      <c r="AH5" s="72"/>
+      <c r="AI5" s="62"/>
+      <c r="AJ5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="34" t="s">
+      <c r="AK5" s="71"/>
+      <c r="AL5" s="71"/>
+      <c r="AM5" s="72"/>
+      <c r="AN5" s="62"/>
+      <c r="AO5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="34"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="34" t="s">
+      <c r="AP5" s="65"/>
+      <c r="AQ5" s="65"/>
+      <c r="AR5" s="65"/>
+      <c r="AS5" s="62"/>
+      <c r="AT5" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="34" t="s">
+      <c r="AU5" s="65"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="65"/>
+      <c r="AX5" s="62"/>
+      <c r="AY5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
-      <c r="BB5" s="34"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="34" t="s">
+      <c r="AZ5" s="65"/>
+      <c r="BA5" s="65"/>
+      <c r="BB5" s="65"/>
+      <c r="BC5" s="62"/>
+      <c r="BD5" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="34"/>
-      <c r="BG5" s="34"/>
-      <c r="BH5" s="38"/>
-      <c r="BI5" s="34" t="s">
+      <c r="BE5" s="65"/>
+      <c r="BF5" s="65"/>
+      <c r="BG5" s="65"/>
+      <c r="BH5" s="62"/>
+      <c r="BI5" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="BJ5" s="34"/>
-      <c r="BK5" s="34"/>
-      <c r="BL5" s="34"/>
-      <c r="BM5" s="38"/>
-      <c r="BN5" s="34" t="s">
+      <c r="BJ5" s="65"/>
+      <c r="BK5" s="65"/>
+      <c r="BL5" s="65"/>
+      <c r="BM5" s="62"/>
+      <c r="BN5" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="BO5" s="34"/>
-      <c r="BP5" s="34"/>
-      <c r="BQ5" s="34"/>
+      <c r="BO5" s="65"/>
+      <c r="BP5" s="65"/>
+      <c r="BQ5" s="65"/>
       <c r="BR5" s="8"/>
       <c r="BS5" s="8"/>
     </row>
     <row r="6" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="47"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="39"/>
+      <c r="J6" s="63"/>
       <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1591,7 +1591,7 @@
       <c r="N6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="39"/>
+      <c r="O6" s="63"/>
       <c r="P6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="S6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="50"/>
+      <c r="T6" s="67"/>
       <c r="U6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1617,7 +1617,7 @@
       <c r="X6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Y6" s="39"/>
+      <c r="Y6" s="63"/>
       <c r="Z6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1630,7 +1630,7 @@
       <c r="AC6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AD6" s="39"/>
+      <c r="AD6" s="63"/>
       <c r="AE6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1643,7 +1643,7 @@
       <c r="AH6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AI6" s="39"/>
+      <c r="AI6" s="63"/>
       <c r="AJ6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="AM6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AN6" s="39"/>
+      <c r="AN6" s="63"/>
       <c r="AO6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="AR6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AS6" s="39"/>
+      <c r="AS6" s="63"/>
       <c r="AT6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="AW6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AX6" s="39"/>
+      <c r="AX6" s="63"/>
       <c r="AY6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="BB6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BC6" s="39"/>
+      <c r="BC6" s="63"/>
       <c r="BD6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="BG6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BH6" s="39"/>
+      <c r="BH6" s="63"/>
       <c r="BI6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="BL6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BM6" s="39"/>
+      <c r="BM6" s="63"/>
       <c r="BN6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1740,71 +1740,71 @@
     <row r="7" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="47"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="76"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="39"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
+      <c r="O7" s="63"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="50"/>
+      <c r="T7" s="67"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="39"/>
+      <c r="Y7" s="63"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="39"/>
+      <c r="AD7" s="63"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
-      <c r="AI7" s="39"/>
+      <c r="AI7" s="63"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
-      <c r="AN7" s="39"/>
+      <c r="AN7" s="63"/>
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
-      <c r="AS7" s="39"/>
+      <c r="AS7" s="63"/>
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
-      <c r="AX7" s="39"/>
+      <c r="AX7" s="63"/>
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
-      <c r="BC7" s="39"/>
+      <c r="BC7" s="63"/>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
       <c r="BG7" s="1"/>
-      <c r="BH7" s="39"/>
+      <c r="BH7" s="63"/>
       <c r="BI7" s="1"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
-      <c r="BM7" s="39"/>
+      <c r="BM7" s="63"/>
       <c r="BN7" s="1"/>
       <c r="BO7" s="1"/>
       <c r="BP7" s="1"/>
@@ -1815,144 +1815,144 @@
     <row r="8" spans="1:71" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="43"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="39"/>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="43"/>
-      <c r="AL8" s="43"/>
-      <c r="AM8" s="44"/>
-      <c r="AN8" s="39"/>
-      <c r="AO8" s="42"/>
-      <c r="AP8" s="43"/>
-      <c r="AQ8" s="43"/>
-      <c r="AR8" s="44"/>
-      <c r="AS8" s="39"/>
-      <c r="AT8" s="42"/>
-      <c r="AU8" s="43"/>
-      <c r="AV8" s="43"/>
-      <c r="AW8" s="44"/>
-      <c r="AX8" s="39"/>
-      <c r="AY8" s="42"/>
-      <c r="AZ8" s="43"/>
-      <c r="BA8" s="43"/>
-      <c r="BB8" s="44"/>
-      <c r="BC8" s="39"/>
-      <c r="BD8" s="42"/>
-      <c r="BE8" s="43"/>
-      <c r="BF8" s="43"/>
-      <c r="BG8" s="44"/>
-      <c r="BH8" s="39"/>
-      <c r="BI8" s="42"/>
-      <c r="BJ8" s="43"/>
-      <c r="BK8" s="43"/>
-      <c r="BL8" s="44"/>
-      <c r="BM8" s="39"/>
-      <c r="BN8" s="42"/>
-      <c r="BO8" s="43"/>
-      <c r="BP8" s="43"/>
-      <c r="BQ8" s="44"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="58"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="57"/>
+      <c r="AK8" s="58"/>
+      <c r="AL8" s="58"/>
+      <c r="AM8" s="59"/>
+      <c r="AN8" s="63"/>
+      <c r="AO8" s="57"/>
+      <c r="AP8" s="58"/>
+      <c r="AQ8" s="58"/>
+      <c r="AR8" s="59"/>
+      <c r="AS8" s="63"/>
+      <c r="AT8" s="57"/>
+      <c r="AU8" s="58"/>
+      <c r="AV8" s="58"/>
+      <c r="AW8" s="59"/>
+      <c r="AX8" s="63"/>
+      <c r="AY8" s="57"/>
+      <c r="AZ8" s="58"/>
+      <c r="BA8" s="58"/>
+      <c r="BB8" s="59"/>
+      <c r="BC8" s="63"/>
+      <c r="BD8" s="57"/>
+      <c r="BE8" s="58"/>
+      <c r="BF8" s="58"/>
+      <c r="BG8" s="59"/>
+      <c r="BH8" s="63"/>
+      <c r="BI8" s="57"/>
+      <c r="BJ8" s="58"/>
+      <c r="BK8" s="58"/>
+      <c r="BL8" s="59"/>
+      <c r="BM8" s="63"/>
+      <c r="BN8" s="57"/>
+      <c r="BO8" s="58"/>
+      <c r="BP8" s="58"/>
+      <c r="BQ8" s="59"/>
       <c r="BR8" s="10"/>
       <c r="BS8" s="10"/>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="47"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="76"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="39"/>
+      <c r="J9" s="63"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="39"/>
+      <c r="O9" s="63"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="50"/>
+      <c r="T9" s="67"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="39"/>
+      <c r="Y9" s="63"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
-      <c r="AD9" s="39"/>
+      <c r="AD9" s="63"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
-      <c r="AI9" s="39"/>
+      <c r="AI9" s="63"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
-      <c r="AN9" s="39"/>
+      <c r="AN9" s="63"/>
       <c r="AO9" s="2"/>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
-      <c r="AS9" s="39"/>
+      <c r="AS9" s="63"/>
       <c r="AT9" s="2"/>
       <c r="AU9" s="1"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
-      <c r="AX9" s="39"/>
+      <c r="AX9" s="63"/>
       <c r="AY9" s="2"/>
       <c r="AZ9" s="1"/>
       <c r="BA9" s="2"/>
       <c r="BB9" s="2"/>
-      <c r="BC9" s="39"/>
+      <c r="BC9" s="63"/>
       <c r="BD9" s="2"/>
       <c r="BE9" s="1"/>
       <c r="BF9" s="2"/>
       <c r="BG9" s="2"/>
-      <c r="BH9" s="39"/>
+      <c r="BH9" s="63"/>
       <c r="BI9" s="2"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="2"/>
       <c r="BL9" s="2"/>
-      <c r="BM9" s="39"/>
+      <c r="BM9" s="63"/>
       <c r="BN9" s="2"/>
       <c r="BO9" s="1"/>
       <c r="BP9" s="2"/>
@@ -1963,144 +1963,144 @@
     <row r="10" spans="1:71" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="43"/>
-      <c r="AG10" s="43"/>
-      <c r="AH10" s="44"/>
-      <c r="AI10" s="39"/>
-      <c r="AJ10" s="42"/>
-      <c r="AK10" s="43"/>
-      <c r="AL10" s="43"/>
-      <c r="AM10" s="44"/>
-      <c r="AN10" s="39"/>
-      <c r="AO10" s="42"/>
-      <c r="AP10" s="43"/>
-      <c r="AQ10" s="43"/>
-      <c r="AR10" s="44"/>
-      <c r="AS10" s="39"/>
-      <c r="AT10" s="42"/>
-      <c r="AU10" s="43"/>
-      <c r="AV10" s="43"/>
-      <c r="AW10" s="44"/>
-      <c r="AX10" s="39"/>
-      <c r="AY10" s="42"/>
-      <c r="AZ10" s="43"/>
-      <c r="BA10" s="43"/>
-      <c r="BB10" s="44"/>
-      <c r="BC10" s="39"/>
-      <c r="BD10" s="42"/>
-      <c r="BE10" s="43"/>
-      <c r="BF10" s="43"/>
-      <c r="BG10" s="44"/>
-      <c r="BH10" s="39"/>
-      <c r="BI10" s="42"/>
-      <c r="BJ10" s="43"/>
-      <c r="BK10" s="43"/>
-      <c r="BL10" s="44"/>
-      <c r="BM10" s="39"/>
-      <c r="BN10" s="42"/>
-      <c r="BO10" s="43"/>
-      <c r="BP10" s="43"/>
-      <c r="BQ10" s="44"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="63"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="57"/>
+      <c r="AK10" s="58"/>
+      <c r="AL10" s="58"/>
+      <c r="AM10" s="59"/>
+      <c r="AN10" s="63"/>
+      <c r="AO10" s="57"/>
+      <c r="AP10" s="58"/>
+      <c r="AQ10" s="58"/>
+      <c r="AR10" s="59"/>
+      <c r="AS10" s="63"/>
+      <c r="AT10" s="57"/>
+      <c r="AU10" s="58"/>
+      <c r="AV10" s="58"/>
+      <c r="AW10" s="59"/>
+      <c r="AX10" s="63"/>
+      <c r="AY10" s="57"/>
+      <c r="AZ10" s="58"/>
+      <c r="BA10" s="58"/>
+      <c r="BB10" s="59"/>
+      <c r="BC10" s="63"/>
+      <c r="BD10" s="57"/>
+      <c r="BE10" s="58"/>
+      <c r="BF10" s="58"/>
+      <c r="BG10" s="59"/>
+      <c r="BH10" s="63"/>
+      <c r="BI10" s="57"/>
+      <c r="BJ10" s="58"/>
+      <c r="BK10" s="58"/>
+      <c r="BL10" s="59"/>
+      <c r="BM10" s="63"/>
+      <c r="BN10" s="57"/>
+      <c r="BO10" s="58"/>
+      <c r="BP10" s="58"/>
+      <c r="BQ10" s="59"/>
       <c r="BR10" s="10"/>
       <c r="BS10" s="10"/>
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="47"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="76"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="39"/>
+      <c r="J11" s="63"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="1"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="39"/>
+      <c r="O11" s="63"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="50"/>
+      <c r="T11" s="67"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="39"/>
+      <c r="Y11" s="63"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="39"/>
+      <c r="AD11" s="63"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
-      <c r="AI11" s="39"/>
+      <c r="AI11" s="63"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
-      <c r="AN11" s="39"/>
+      <c r="AN11" s="63"/>
       <c r="AO11" s="2"/>
       <c r="AP11" s="1"/>
       <c r="AQ11" s="2"/>
       <c r="AR11" s="2"/>
-      <c r="AS11" s="39"/>
+      <c r="AS11" s="63"/>
       <c r="AT11" s="2"/>
       <c r="AU11" s="1"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
-      <c r="AX11" s="39"/>
+      <c r="AX11" s="63"/>
       <c r="AY11" s="2"/>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="2"/>
       <c r="BB11" s="2"/>
-      <c r="BC11" s="39"/>
+      <c r="BC11" s="63"/>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
       <c r="BG11" s="1"/>
-      <c r="BH11" s="39"/>
+      <c r="BH11" s="63"/>
       <c r="BI11" s="2"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="2"/>
       <c r="BL11" s="2"/>
-      <c r="BM11" s="39"/>
+      <c r="BM11" s="63"/>
       <c r="BN11" s="2"/>
       <c r="BO11" s="1"/>
       <c r="BP11" s="2"/>
@@ -2111,144 +2111,144 @@
     <row r="12" spans="1:71" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="43"/>
-      <c r="AG12" s="43"/>
-      <c r="AH12" s="44"/>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="43"/>
-      <c r="AL12" s="43"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="39"/>
-      <c r="AO12" s="42"/>
-      <c r="AP12" s="43"/>
-      <c r="AQ12" s="43"/>
-      <c r="AR12" s="44"/>
-      <c r="AS12" s="39"/>
-      <c r="AT12" s="42"/>
-      <c r="AU12" s="43"/>
-      <c r="AV12" s="43"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="39"/>
-      <c r="AY12" s="42"/>
-      <c r="AZ12" s="43"/>
-      <c r="BA12" s="43"/>
-      <c r="BB12" s="44"/>
-      <c r="BC12" s="39"/>
-      <c r="BD12" s="42"/>
-      <c r="BE12" s="43"/>
-      <c r="BF12" s="43"/>
-      <c r="BG12" s="44"/>
-      <c r="BH12" s="39"/>
-      <c r="BI12" s="42"/>
-      <c r="BJ12" s="43"/>
-      <c r="BK12" s="43"/>
-      <c r="BL12" s="44"/>
-      <c r="BM12" s="39"/>
-      <c r="BN12" s="42"/>
-      <c r="BO12" s="43"/>
-      <c r="BP12" s="43"/>
-      <c r="BQ12" s="44"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="63"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="63"/>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="58"/>
+      <c r="AL12" s="58"/>
+      <c r="AM12" s="59"/>
+      <c r="AN12" s="63"/>
+      <c r="AO12" s="57"/>
+      <c r="AP12" s="58"/>
+      <c r="AQ12" s="58"/>
+      <c r="AR12" s="59"/>
+      <c r="AS12" s="63"/>
+      <c r="AT12" s="57"/>
+      <c r="AU12" s="58"/>
+      <c r="AV12" s="58"/>
+      <c r="AW12" s="59"/>
+      <c r="AX12" s="63"/>
+      <c r="AY12" s="57"/>
+      <c r="AZ12" s="58"/>
+      <c r="BA12" s="58"/>
+      <c r="BB12" s="59"/>
+      <c r="BC12" s="63"/>
+      <c r="BD12" s="57"/>
+      <c r="BE12" s="58"/>
+      <c r="BF12" s="58"/>
+      <c r="BG12" s="59"/>
+      <c r="BH12" s="63"/>
+      <c r="BI12" s="57"/>
+      <c r="BJ12" s="58"/>
+      <c r="BK12" s="58"/>
+      <c r="BL12" s="59"/>
+      <c r="BM12" s="63"/>
+      <c r="BN12" s="57"/>
+      <c r="BO12" s="58"/>
+      <c r="BP12" s="58"/>
+      <c r="BQ12" s="59"/>
       <c r="BR12" s="10"/>
       <c r="BS12" s="10"/>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="47"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="76"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="39"/>
+      <c r="J13" s="63"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="39"/>
+      <c r="O13" s="63"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="50"/>
+      <c r="T13" s="67"/>
       <c r="U13" s="2"/>
       <c r="V13" s="1"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="39"/>
+      <c r="Y13" s="63"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
-      <c r="AD13" s="39"/>
+      <c r="AD13" s="63"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="2"/>
-      <c r="AI13" s="39"/>
+      <c r="AI13" s="63"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
-      <c r="AN13" s="39"/>
+      <c r="AN13" s="63"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
-      <c r="AS13" s="39"/>
+      <c r="AS13" s="63"/>
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
-      <c r="AX13" s="39"/>
+      <c r="AX13" s="63"/>
       <c r="AY13" s="11"/>
       <c r="AZ13" s="12"/>
       <c r="BA13" s="11"/>
       <c r="BB13" s="11"/>
-      <c r="BC13" s="39"/>
+      <c r="BC13" s="63"/>
       <c r="BD13" s="2"/>
       <c r="BE13" s="2"/>
       <c r="BF13" s="2"/>
       <c r="BG13" s="2"/>
-      <c r="BH13" s="39"/>
+      <c r="BH13" s="63"/>
       <c r="BI13" s="2"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="2"/>
       <c r="BL13" s="2"/>
-      <c r="BM13" s="39"/>
+      <c r="BM13" s="63"/>
       <c r="BN13" s="2"/>
       <c r="BO13" s="1"/>
       <c r="BP13" s="2"/>
@@ -2259,144 +2259,144 @@
     <row r="14" spans="1:71" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="43"/>
-      <c r="AC14" s="44"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="43"/>
-      <c r="AG14" s="43"/>
-      <c r="AH14" s="44"/>
-      <c r="AI14" s="39"/>
-      <c r="AJ14" s="42"/>
-      <c r="AK14" s="43"/>
-      <c r="AL14" s="43"/>
-      <c r="AM14" s="44"/>
-      <c r="AN14" s="39"/>
-      <c r="AO14" s="42"/>
-      <c r="AP14" s="43"/>
-      <c r="AQ14" s="43"/>
-      <c r="AR14" s="44"/>
-      <c r="AS14" s="39"/>
-      <c r="AT14" s="42"/>
-      <c r="AU14" s="43"/>
-      <c r="AV14" s="43"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="39"/>
-      <c r="AY14" s="42"/>
-      <c r="AZ14" s="43"/>
-      <c r="BA14" s="43"/>
-      <c r="BB14" s="44"/>
-      <c r="BC14" s="39"/>
-      <c r="BD14" s="42"/>
-      <c r="BE14" s="43"/>
-      <c r="BF14" s="43"/>
-      <c r="BG14" s="44"/>
-      <c r="BH14" s="39"/>
-      <c r="BI14" s="42"/>
-      <c r="BJ14" s="43"/>
-      <c r="BK14" s="43"/>
-      <c r="BL14" s="44"/>
-      <c r="BM14" s="39"/>
-      <c r="BN14" s="42"/>
-      <c r="BO14" s="43"/>
-      <c r="BP14" s="43"/>
-      <c r="BQ14" s="44"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="63"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="58"/>
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="58"/>
+      <c r="AL14" s="58"/>
+      <c r="AM14" s="59"/>
+      <c r="AN14" s="63"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="58"/>
+      <c r="AQ14" s="58"/>
+      <c r="AR14" s="59"/>
+      <c r="AS14" s="63"/>
+      <c r="AT14" s="57"/>
+      <c r="AU14" s="58"/>
+      <c r="AV14" s="58"/>
+      <c r="AW14" s="59"/>
+      <c r="AX14" s="63"/>
+      <c r="AY14" s="57"/>
+      <c r="AZ14" s="58"/>
+      <c r="BA14" s="58"/>
+      <c r="BB14" s="59"/>
+      <c r="BC14" s="63"/>
+      <c r="BD14" s="57"/>
+      <c r="BE14" s="58"/>
+      <c r="BF14" s="58"/>
+      <c r="BG14" s="59"/>
+      <c r="BH14" s="63"/>
+      <c r="BI14" s="57"/>
+      <c r="BJ14" s="58"/>
+      <c r="BK14" s="58"/>
+      <c r="BL14" s="59"/>
+      <c r="BM14" s="63"/>
+      <c r="BN14" s="57"/>
+      <c r="BO14" s="58"/>
+      <c r="BP14" s="58"/>
+      <c r="BQ14" s="59"/>
       <c r="BR14" s="10"/>
       <c r="BS14" s="10"/>
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="47"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="76"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="39"/>
+      <c r="J15" s="63"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="39"/>
+      <c r="O15" s="63"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="50"/>
+      <c r="T15" s="67"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="39"/>
+      <c r="Y15" s="63"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="39"/>
+      <c r="AD15" s="63"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
-      <c r="AI15" s="39"/>
+      <c r="AI15" s="63"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
-      <c r="AN15" s="39"/>
+      <c r="AN15" s="63"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
       <c r="AR15" s="2"/>
-      <c r="AS15" s="39"/>
+      <c r="AS15" s="63"/>
       <c r="AT15" s="2"/>
       <c r="AU15" s="1"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
-      <c r="AX15" s="39"/>
+      <c r="AX15" s="63"/>
       <c r="AY15" s="2"/>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="2"/>
       <c r="BB15" s="2"/>
-      <c r="BC15" s="39"/>
+      <c r="BC15" s="63"/>
       <c r="BD15" s="2"/>
       <c r="BE15" s="2"/>
       <c r="BF15" s="2"/>
       <c r="BG15" s="2"/>
-      <c r="BH15" s="39"/>
+      <c r="BH15" s="63"/>
       <c r="BI15" s="2"/>
       <c r="BJ15" s="2"/>
       <c r="BK15" s="2"/>
       <c r="BL15" s="2"/>
-      <c r="BM15" s="39"/>
+      <c r="BM15" s="63"/>
       <c r="BN15" s="2"/>
       <c r="BO15" s="2"/>
       <c r="BP15" s="2"/>
@@ -2405,585 +2405,585 @@
       <c r="BS15" s="7"/>
     </row>
     <row r="16" spans="1:71" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="43"/>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="42"/>
-      <c r="AF16" s="43"/>
-      <c r="AG16" s="43"/>
-      <c r="AH16" s="44"/>
-      <c r="AI16" s="40"/>
-      <c r="AJ16" s="42"/>
-      <c r="AK16" s="43"/>
-      <c r="AL16" s="43"/>
-      <c r="AM16" s="44"/>
-      <c r="AN16" s="40"/>
-      <c r="AO16" s="42"/>
-      <c r="AP16" s="43"/>
-      <c r="AQ16" s="43"/>
-      <c r="AR16" s="44"/>
-      <c r="AS16" s="40"/>
-      <c r="AT16" s="42"/>
-      <c r="AU16" s="43"/>
-      <c r="AV16" s="43"/>
-      <c r="AW16" s="44"/>
-      <c r="AX16" s="40"/>
-      <c r="AY16" s="42"/>
-      <c r="AZ16" s="43"/>
-      <c r="BA16" s="43"/>
-      <c r="BB16" s="44"/>
-      <c r="BC16" s="40"/>
-      <c r="BD16" s="42"/>
-      <c r="BE16" s="43"/>
-      <c r="BF16" s="43"/>
-      <c r="BG16" s="44"/>
-      <c r="BH16" s="40"/>
-      <c r="BI16" s="42"/>
-      <c r="BJ16" s="43"/>
-      <c r="BK16" s="43"/>
-      <c r="BL16" s="44"/>
-      <c r="BM16" s="40"/>
-      <c r="BN16" s="42"/>
-      <c r="BO16" s="43"/>
-      <c r="BP16" s="43"/>
-      <c r="BQ16" s="44"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="64"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="58"/>
+      <c r="AG16" s="58"/>
+      <c r="AH16" s="59"/>
+      <c r="AI16" s="64"/>
+      <c r="AJ16" s="57"/>
+      <c r="AK16" s="58"/>
+      <c r="AL16" s="58"/>
+      <c r="AM16" s="59"/>
+      <c r="AN16" s="64"/>
+      <c r="AO16" s="57"/>
+      <c r="AP16" s="58"/>
+      <c r="AQ16" s="58"/>
+      <c r="AR16" s="59"/>
+      <c r="AS16" s="64"/>
+      <c r="AT16" s="57"/>
+      <c r="AU16" s="58"/>
+      <c r="AV16" s="58"/>
+      <c r="AW16" s="59"/>
+      <c r="AX16" s="64"/>
+      <c r="AY16" s="57"/>
+      <c r="AZ16" s="58"/>
+      <c r="BA16" s="58"/>
+      <c r="BB16" s="59"/>
+      <c r="BC16" s="64"/>
+      <c r="BD16" s="57"/>
+      <c r="BE16" s="58"/>
+      <c r="BF16" s="58"/>
+      <c r="BG16" s="59"/>
+      <c r="BH16" s="64"/>
+      <c r="BI16" s="57"/>
+      <c r="BJ16" s="58"/>
+      <c r="BK16" s="58"/>
+      <c r="BL16" s="59"/>
+      <c r="BM16" s="64"/>
+      <c r="BN16" s="57"/>
+      <c r="BO16" s="58"/>
+      <c r="BP16" s="58"/>
+      <c r="BQ16" s="59"/>
     </row>
     <row r="17" spans="3:71" x14ac:dyDescent="0.25">
       <c r="BR17" s="7"/>
       <c r="BS17" s="7"/>
     </row>
     <row r="18" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="66" t="s">
+      <c r="D18" s="34"/>
+      <c r="E18" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="67"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="67"/>
-      <c r="AC18" s="67"/>
-      <c r="AD18" s="67"/>
-      <c r="AE18" s="67"/>
-      <c r="AF18" s="67"/>
-      <c r="AG18" s="67"/>
-      <c r="AH18" s="67"/>
-      <c r="AI18" s="67"/>
-      <c r="AJ18" s="67"/>
-      <c r="AK18" s="67"/>
-      <c r="AL18" s="67"/>
-      <c r="AM18" s="67"/>
-      <c r="AN18" s="67"/>
-      <c r="AO18" s="67"/>
-      <c r="AP18" s="67"/>
-      <c r="AQ18" s="67"/>
-      <c r="AR18" s="67"/>
-      <c r="AS18" s="67"/>
-      <c r="AT18" s="67"/>
-      <c r="AU18" s="67"/>
-      <c r="AV18" s="67"/>
-      <c r="AW18" s="67"/>
-      <c r="AX18" s="68"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="46"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46"/>
+      <c r="AJ18" s="46"/>
+      <c r="AK18" s="46"/>
+      <c r="AL18" s="46"/>
+      <c r="AM18" s="46"/>
+      <c r="AN18" s="46"/>
+      <c r="AO18" s="46"/>
+      <c r="AP18" s="46"/>
+      <c r="AQ18" s="46"/>
+      <c r="AR18" s="46"/>
+      <c r="AS18" s="46"/>
+      <c r="AT18" s="46"/>
+      <c r="AU18" s="46"/>
+      <c r="AV18" s="46"/>
+      <c r="AW18" s="46"/>
+      <c r="AX18" s="47"/>
     </row>
     <row r="19" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="70"/>
-      <c r="Y19" s="70"/>
-      <c r="Z19" s="70"/>
-      <c r="AA19" s="70"/>
-      <c r="AB19" s="70"/>
-      <c r="AC19" s="70"/>
-      <c r="AD19" s="70"/>
-      <c r="AE19" s="70"/>
-      <c r="AF19" s="70"/>
-      <c r="AG19" s="70"/>
-      <c r="AH19" s="70"/>
-      <c r="AI19" s="70"/>
-      <c r="AJ19" s="70"/>
-      <c r="AK19" s="70"/>
-      <c r="AL19" s="70"/>
-      <c r="AM19" s="70"/>
-      <c r="AN19" s="70"/>
-      <c r="AO19" s="70"/>
-      <c r="AP19" s="70"/>
-      <c r="AQ19" s="70"/>
-      <c r="AR19" s="70"/>
-      <c r="AS19" s="70"/>
-      <c r="AT19" s="70"/>
-      <c r="AU19" s="70"/>
-      <c r="AV19" s="70"/>
-      <c r="AW19" s="70"/>
-      <c r="AX19" s="71"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="49"/>
+      <c r="AG19" s="49"/>
+      <c r="AH19" s="49"/>
+      <c r="AI19" s="49"/>
+      <c r="AJ19" s="49"/>
+      <c r="AK19" s="49"/>
+      <c r="AL19" s="49"/>
+      <c r="AM19" s="49"/>
+      <c r="AN19" s="49"/>
+      <c r="AO19" s="49"/>
+      <c r="AP19" s="49"/>
+      <c r="AQ19" s="49"/>
+      <c r="AR19" s="49"/>
+      <c r="AS19" s="49"/>
+      <c r="AT19" s="49"/>
+      <c r="AU19" s="49"/>
+      <c r="AV19" s="49"/>
+      <c r="AW19" s="49"/>
+      <c r="AX19" s="50"/>
     </row>
     <row r="20" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="72" t="s">
+      <c r="D20" s="34"/>
+      <c r="E20" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="73"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="73"/>
-      <c r="AA20" s="73"/>
-      <c r="AB20" s="73"/>
-      <c r="AC20" s="73"/>
-      <c r="AD20" s="73"/>
-      <c r="AE20" s="73"/>
-      <c r="AF20" s="73"/>
-      <c r="AG20" s="73"/>
-      <c r="AH20" s="73"/>
-      <c r="AI20" s="73"/>
-      <c r="AJ20" s="73"/>
-      <c r="AK20" s="73"/>
-      <c r="AL20" s="73"/>
-      <c r="AM20" s="73"/>
-      <c r="AN20" s="73"/>
-      <c r="AO20" s="73"/>
-      <c r="AP20" s="73"/>
-      <c r="AQ20" s="73"/>
-      <c r="AR20" s="73"/>
-      <c r="AS20" s="73"/>
-      <c r="AT20" s="73"/>
-      <c r="AU20" s="73"/>
-      <c r="AV20" s="73"/>
-      <c r="AW20" s="73"/>
-      <c r="AX20" s="74"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="52"/>
+      <c r="AJ20" s="52"/>
+      <c r="AK20" s="52"/>
+      <c r="AL20" s="52"/>
+      <c r="AM20" s="52"/>
+      <c r="AN20" s="52"/>
+      <c r="AO20" s="52"/>
+      <c r="AP20" s="52"/>
+      <c r="AQ20" s="52"/>
+      <c r="AR20" s="52"/>
+      <c r="AS20" s="52"/>
+      <c r="AT20" s="52"/>
+      <c r="AU20" s="52"/>
+      <c r="AV20" s="52"/>
+      <c r="AW20" s="52"/>
+      <c r="AX20" s="53"/>
     </row>
     <row r="21" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="76"/>
-      <c r="T21" s="76"/>
-      <c r="U21" s="76"/>
-      <c r="V21" s="76"/>
-      <c r="W21" s="76"/>
-      <c r="X21" s="76"/>
-      <c r="Y21" s="76"/>
-      <c r="Z21" s="76"/>
-      <c r="AA21" s="76"/>
-      <c r="AB21" s="76"/>
-      <c r="AC21" s="76"/>
-      <c r="AD21" s="76"/>
-      <c r="AE21" s="76"/>
-      <c r="AF21" s="76"/>
-      <c r="AG21" s="76"/>
-      <c r="AH21" s="76"/>
-      <c r="AI21" s="76"/>
-      <c r="AJ21" s="76"/>
-      <c r="AK21" s="76"/>
-      <c r="AL21" s="76"/>
-      <c r="AM21" s="76"/>
-      <c r="AN21" s="76"/>
-      <c r="AO21" s="76"/>
-      <c r="AP21" s="76"/>
-      <c r="AQ21" s="76"/>
-      <c r="AR21" s="76"/>
-      <c r="AS21" s="76"/>
-      <c r="AT21" s="76"/>
-      <c r="AU21" s="76"/>
-      <c r="AV21" s="76"/>
-      <c r="AW21" s="76"/>
-      <c r="AX21" s="77"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="55"/>
+      <c r="AF21" s="55"/>
+      <c r="AG21" s="55"/>
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="55"/>
+      <c r="AJ21" s="55"/>
+      <c r="AK21" s="55"/>
+      <c r="AL21" s="55"/>
+      <c r="AM21" s="55"/>
+      <c r="AN21" s="55"/>
+      <c r="AO21" s="55"/>
+      <c r="AP21" s="55"/>
+      <c r="AQ21" s="55"/>
+      <c r="AR21" s="55"/>
+      <c r="AS21" s="55"/>
+      <c r="AT21" s="55"/>
+      <c r="AU21" s="55"/>
+      <c r="AV21" s="55"/>
+      <c r="AW21" s="55"/>
+      <c r="AX21" s="56"/>
     </row>
     <row r="22" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="59"/>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="59"/>
-      <c r="AJ22" s="59"/>
-      <c r="AK22" s="59"/>
-      <c r="AL22" s="59"/>
-      <c r="AM22" s="59"/>
-      <c r="AN22" s="59"/>
-      <c r="AO22" s="59"/>
-      <c r="AP22" s="59"/>
-      <c r="AQ22" s="59"/>
-      <c r="AR22" s="59"/>
-      <c r="AS22" s="59"/>
-      <c r="AT22" s="59"/>
-      <c r="AU22" s="59"/>
-      <c r="AV22" s="59"/>
-      <c r="AW22" s="59"/>
-      <c r="AX22" s="60"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="38"/>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="38"/>
+      <c r="AH22" s="38"/>
+      <c r="AI22" s="38"/>
+      <c r="AJ22" s="38"/>
+      <c r="AK22" s="38"/>
+      <c r="AL22" s="38"/>
+      <c r="AM22" s="38"/>
+      <c r="AN22" s="38"/>
+      <c r="AO22" s="38"/>
+      <c r="AP22" s="38"/>
+      <c r="AQ22" s="38"/>
+      <c r="AR22" s="38"/>
+      <c r="AS22" s="38"/>
+      <c r="AT22" s="38"/>
+      <c r="AU22" s="38"/>
+      <c r="AV22" s="38"/>
+      <c r="AW22" s="38"/>
+      <c r="AX22" s="39"/>
     </row>
     <row r="23" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C23" s="56"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="62"/>
-      <c r="AA23" s="62"/>
-      <c r="AB23" s="62"/>
-      <c r="AC23" s="62"/>
-      <c r="AD23" s="62"/>
-      <c r="AE23" s="62"/>
-      <c r="AF23" s="62"/>
-      <c r="AG23" s="62"/>
-      <c r="AH23" s="62"/>
-      <c r="AI23" s="62"/>
-      <c r="AJ23" s="62"/>
-      <c r="AK23" s="62"/>
-      <c r="AL23" s="62"/>
-      <c r="AM23" s="62"/>
-      <c r="AN23" s="62"/>
-      <c r="AO23" s="62"/>
-      <c r="AP23" s="62"/>
-      <c r="AQ23" s="62"/>
-      <c r="AR23" s="62"/>
-      <c r="AS23" s="62"/>
-      <c r="AT23" s="62"/>
-      <c r="AU23" s="62"/>
-      <c r="AV23" s="62"/>
-      <c r="AW23" s="62"/>
-      <c r="AX23" s="63"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="41"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="41"/>
+      <c r="AK23" s="41"/>
+      <c r="AL23" s="41"/>
+      <c r="AM23" s="41"/>
+      <c r="AN23" s="41"/>
+      <c r="AO23" s="41"/>
+      <c r="AP23" s="41"/>
+      <c r="AQ23" s="41"/>
+      <c r="AR23" s="41"/>
+      <c r="AS23" s="41"/>
+      <c r="AT23" s="41"/>
+      <c r="AU23" s="41"/>
+      <c r="AV23" s="41"/>
+      <c r="AW23" s="41"/>
+      <c r="AX23" s="42"/>
     </row>
     <row r="24" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="59"/>
-      <c r="AK24" s="59"/>
-      <c r="AL24" s="59"/>
-      <c r="AM24" s="59"/>
-      <c r="AN24" s="59"/>
-      <c r="AO24" s="59"/>
-      <c r="AP24" s="59"/>
-      <c r="AQ24" s="59"/>
-      <c r="AR24" s="59"/>
-      <c r="AS24" s="59"/>
-      <c r="AT24" s="59"/>
-      <c r="AU24" s="59"/>
-      <c r="AV24" s="59"/>
-      <c r="AW24" s="59"/>
-      <c r="AX24" s="60"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="38"/>
+      <c r="AN24" s="38"/>
+      <c r="AO24" s="38"/>
+      <c r="AP24" s="38"/>
+      <c r="AQ24" s="38"/>
+      <c r="AR24" s="38"/>
+      <c r="AS24" s="38"/>
+      <c r="AT24" s="38"/>
+      <c r="AU24" s="38"/>
+      <c r="AV24" s="38"/>
+      <c r="AW24" s="38"/>
+      <c r="AX24" s="39"/>
     </row>
     <row r="25" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="62"/>
-      <c r="W25" s="62"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="62"/>
-      <c r="AA25" s="62"/>
-      <c r="AB25" s="62"/>
-      <c r="AC25" s="62"/>
-      <c r="AD25" s="62"/>
-      <c r="AE25" s="62"/>
-      <c r="AF25" s="62"/>
-      <c r="AG25" s="62"/>
-      <c r="AH25" s="62"/>
-      <c r="AI25" s="62"/>
-      <c r="AJ25" s="62"/>
-      <c r="AK25" s="62"/>
-      <c r="AL25" s="62"/>
-      <c r="AM25" s="62"/>
-      <c r="AN25" s="62"/>
-      <c r="AO25" s="62"/>
-      <c r="AP25" s="62"/>
-      <c r="AQ25" s="62"/>
-      <c r="AR25" s="62"/>
-      <c r="AS25" s="62"/>
-      <c r="AT25" s="62"/>
-      <c r="AU25" s="62"/>
-      <c r="AV25" s="62"/>
-      <c r="AW25" s="62"/>
-      <c r="AX25" s="63"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="41"/>
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="41"/>
+      <c r="AF25" s="41"/>
+      <c r="AG25" s="41"/>
+      <c r="AH25" s="41"/>
+      <c r="AI25" s="41"/>
+      <c r="AJ25" s="41"/>
+      <c r="AK25" s="41"/>
+      <c r="AL25" s="41"/>
+      <c r="AM25" s="41"/>
+      <c r="AN25" s="41"/>
+      <c r="AO25" s="41"/>
+      <c r="AP25" s="41"/>
+      <c r="AQ25" s="41"/>
+      <c r="AR25" s="41"/>
+      <c r="AS25" s="41"/>
+      <c r="AT25" s="41"/>
+      <c r="AU25" s="41"/>
+      <c r="AV25" s="41"/>
+      <c r="AW25" s="41"/>
+      <c r="AX25" s="42"/>
     </row>
     <row r="26" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="59"/>
-      <c r="AK26" s="59"/>
-      <c r="AL26" s="59"/>
-      <c r="AM26" s="59"/>
-      <c r="AN26" s="59"/>
-      <c r="AO26" s="59"/>
-      <c r="AP26" s="59"/>
-      <c r="AQ26" s="59"/>
-      <c r="AR26" s="59"/>
-      <c r="AS26" s="59"/>
-      <c r="AT26" s="59"/>
-      <c r="AU26" s="59"/>
-      <c r="AV26" s="59"/>
-      <c r="AW26" s="59"/>
-      <c r="AX26" s="60"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="38"/>
+      <c r="AG26" s="38"/>
+      <c r="AH26" s="38"/>
+      <c r="AI26" s="38"/>
+      <c r="AJ26" s="38"/>
+      <c r="AK26" s="38"/>
+      <c r="AL26" s="38"/>
+      <c r="AM26" s="38"/>
+      <c r="AN26" s="38"/>
+      <c r="AO26" s="38"/>
+      <c r="AP26" s="38"/>
+      <c r="AQ26" s="38"/>
+      <c r="AR26" s="38"/>
+      <c r="AS26" s="38"/>
+      <c r="AT26" s="38"/>
+      <c r="AU26" s="38"/>
+      <c r="AV26" s="38"/>
+      <c r="AW26" s="38"/>
+      <c r="AX26" s="39"/>
     </row>
     <row r="27" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="62"/>
-      <c r="AA27" s="62"/>
-      <c r="AB27" s="62"/>
-      <c r="AC27" s="62"/>
-      <c r="AD27" s="62"/>
-      <c r="AE27" s="62"/>
-      <c r="AF27" s="62"/>
-      <c r="AG27" s="62"/>
-      <c r="AH27" s="62"/>
-      <c r="AI27" s="62"/>
-      <c r="AJ27" s="62"/>
-      <c r="AK27" s="62"/>
-      <c r="AL27" s="62"/>
-      <c r="AM27" s="62"/>
-      <c r="AN27" s="62"/>
-      <c r="AO27" s="62"/>
-      <c r="AP27" s="62"/>
-      <c r="AQ27" s="62"/>
-      <c r="AR27" s="62"/>
-      <c r="AS27" s="62"/>
-      <c r="AT27" s="62"/>
-      <c r="AU27" s="62"/>
-      <c r="AV27" s="62"/>
-      <c r="AW27" s="62"/>
-      <c r="AX27" s="63"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="41"/>
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="41"/>
+      <c r="AG27" s="41"/>
+      <c r="AH27" s="41"/>
+      <c r="AI27" s="41"/>
+      <c r="AJ27" s="41"/>
+      <c r="AK27" s="41"/>
+      <c r="AL27" s="41"/>
+      <c r="AM27" s="41"/>
+      <c r="AN27" s="41"/>
+      <c r="AO27" s="41"/>
+      <c r="AP27" s="41"/>
+      <c r="AQ27" s="41"/>
+      <c r="AR27" s="41"/>
+      <c r="AS27" s="41"/>
+      <c r="AT27" s="41"/>
+      <c r="AU27" s="41"/>
+      <c r="AV27" s="41"/>
+      <c r="AW27" s="41"/>
+      <c r="AX27" s="42"/>
     </row>
     <row r="32" spans="3:71" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
@@ -2992,6 +2992,95 @@
     </row>
   </sheetData>
   <mergeCells count="113">
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="AE5:AH5"/>
+    <mergeCell ref="AJ5:AM5"/>
+    <mergeCell ref="AO5:AR5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E5:E16"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="AX5:AX16"/>
+    <mergeCell ref="BC5:BC16"/>
+    <mergeCell ref="BH5:BH16"/>
+    <mergeCell ref="Y5:Y16"/>
+    <mergeCell ref="BD5:BG5"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="AT5:AW5"/>
+    <mergeCell ref="AD5:AD16"/>
+    <mergeCell ref="AI5:AI16"/>
+    <mergeCell ref="AN5:AN16"/>
+    <mergeCell ref="AY8:BB8"/>
+    <mergeCell ref="BD8:BG8"/>
+    <mergeCell ref="AT14:AW14"/>
+    <mergeCell ref="AY5:BB5"/>
+    <mergeCell ref="AS5:AS16"/>
+    <mergeCell ref="BI8:BL8"/>
+    <mergeCell ref="BN8:BQ8"/>
+    <mergeCell ref="BI10:BL10"/>
+    <mergeCell ref="BN10:BQ10"/>
+    <mergeCell ref="BD10:BG10"/>
+    <mergeCell ref="AY10:BB10"/>
+    <mergeCell ref="AT10:AW10"/>
+    <mergeCell ref="BM5:BM16"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="BN5:BQ5"/>
+    <mergeCell ref="BD16:BG16"/>
+    <mergeCell ref="BI16:BL16"/>
+    <mergeCell ref="BN16:BQ16"/>
+    <mergeCell ref="AT16:AW16"/>
+    <mergeCell ref="AY16:BB16"/>
+    <mergeCell ref="AT12:AW12"/>
+    <mergeCell ref="AY12:BB12"/>
+    <mergeCell ref="BD12:BG12"/>
+    <mergeCell ref="BI12:BL12"/>
+    <mergeCell ref="BN12:BQ12"/>
+    <mergeCell ref="BN14:BQ14"/>
+    <mergeCell ref="BI14:BL14"/>
+    <mergeCell ref="BD14:BG14"/>
+    <mergeCell ref="AY14:BB14"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="AO14:AR14"/>
+    <mergeCell ref="AJ14:AM14"/>
+    <mergeCell ref="AJ16:AM16"/>
+    <mergeCell ref="AO16:AR16"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="Z16:AC16"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="O5:O16"/>
+    <mergeCell ref="J5:J16"/>
+    <mergeCell ref="T5:T16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="P16:S16"/>
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="E24:AX25"/>
     <mergeCell ref="C26:D27"/>
@@ -3016,95 +3105,6 @@
     <mergeCell ref="AE14:AH14"/>
     <mergeCell ref="AE16:AH16"/>
     <mergeCell ref="U8:X8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="AO14:AR14"/>
-    <mergeCell ref="AJ14:AM14"/>
-    <mergeCell ref="AJ16:AM16"/>
-    <mergeCell ref="AO16:AR16"/>
-    <mergeCell ref="BI8:BL8"/>
-    <mergeCell ref="BN8:BQ8"/>
-    <mergeCell ref="BI10:BL10"/>
-    <mergeCell ref="BN10:BQ10"/>
-    <mergeCell ref="BD10:BG10"/>
-    <mergeCell ref="AY10:BB10"/>
-    <mergeCell ref="AT10:AW10"/>
-    <mergeCell ref="BM5:BM16"/>
-    <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="BN5:BQ5"/>
-    <mergeCell ref="BD16:BG16"/>
-    <mergeCell ref="BI16:BL16"/>
-    <mergeCell ref="BN16:BQ16"/>
-    <mergeCell ref="AT16:AW16"/>
-    <mergeCell ref="AY16:BB16"/>
-    <mergeCell ref="AT12:AW12"/>
-    <mergeCell ref="AY12:BB12"/>
-    <mergeCell ref="BD12:BG12"/>
-    <mergeCell ref="BI12:BL12"/>
-    <mergeCell ref="BN12:BQ12"/>
-    <mergeCell ref="BN14:BQ14"/>
-    <mergeCell ref="BI14:BL14"/>
-    <mergeCell ref="BD14:BG14"/>
-    <mergeCell ref="AY14:BB14"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="Z16:AC16"/>
-    <mergeCell ref="Z14:AC14"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="AX5:AX16"/>
-    <mergeCell ref="BC5:BC16"/>
-    <mergeCell ref="BH5:BH16"/>
-    <mergeCell ref="Y5:Y16"/>
-    <mergeCell ref="BD5:BG5"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="AT5:AW5"/>
-    <mergeCell ref="AD5:AD16"/>
-    <mergeCell ref="AI5:AI16"/>
-    <mergeCell ref="AN5:AN16"/>
-    <mergeCell ref="AY8:BB8"/>
-    <mergeCell ref="BD8:BG8"/>
-    <mergeCell ref="AT14:AW14"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="O5:O16"/>
-    <mergeCell ref="J5:J16"/>
-    <mergeCell ref="T5:T16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="AE5:AH5"/>
-    <mergeCell ref="AJ5:AM5"/>
-    <mergeCell ref="AO5:AR5"/>
-    <mergeCell ref="AY5:BB5"/>
-    <mergeCell ref="AS5:AS16"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E5:E16"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F14:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentos/RBAC.xlsx
+++ b/Documentos/RBAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestorRestauranteWEB\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA049D4-F978-42F5-BFE6-4BC05C95A182}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A8F0E0-782C-4242-BC18-4971EA79D685}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1905" windowWidth="28800" windowHeight="8160" activeTab="1" xr2:uid="{844C1BEA-3A98-4A24-8BD3-ADFF3B39AE3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{844C1BEA-3A98-4A24-8BD3-ADFF3B39AE3F}"/>
   </bookViews>
   <sheets>
     <sheet name="RULES" sheetId="1" r:id="rId1"/>
@@ -657,13 +657,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -678,35 +702,74 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -779,69 +842,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1164,49 +1164,49 @@
   <dimension ref="C4:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D11"/>
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25" t="s">
+      <c r="F5" s="31"/>
+      <c r="G5" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25" t="s">
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="13" t="s">
         <v>31</v>
       </c>
@@ -1223,22 +1223,22 @@
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="18"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="13" t="s">
         <v>35</v>
       </c>
@@ -1255,22 +1255,22 @@
       <c r="L9" s="15"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="18"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="24"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="13" t="s">
         <v>38</v>
       </c>
@@ -1287,22 +1287,22 @@
       <c r="L11" s="15"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="18"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="24"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="13" t="s">
         <v>41</v>
       </c>
@@ -1319,89 +1319,67 @@
       <c r="L13" s="15"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="18"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30" t="s">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31" t="s">
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="32"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="E6:L6"/>
@@ -1415,7 +1393,29 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="C10:L10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J7" r:id="rId1" xr:uid="{329CB05F-94CD-42AE-A5CF-0F7F122D6BE7}"/>
@@ -1432,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC630C6-D830-4A94-8FEE-8365932EB08B}">
   <dimension ref="A1:BS32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:I14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AK15" sqref="AK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,110 +1462,110 @@
     <row r="5" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="65" t="s">
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="65" t="s">
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="73" t="s">
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="65" t="s">
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="65" t="s">
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AA5" s="65"/>
-      <c r="AB5" s="65"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="70" t="s">
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="AF5" s="71"/>
-      <c r="AG5" s="71"/>
-      <c r="AH5" s="72"/>
-      <c r="AI5" s="62"/>
-      <c r="AJ5" s="70" t="s">
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="40"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AK5" s="71"/>
-      <c r="AL5" s="71"/>
-      <c r="AM5" s="72"/>
-      <c r="AN5" s="62"/>
-      <c r="AO5" s="65" t="s">
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="40"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AP5" s="65"/>
-      <c r="AQ5" s="65"/>
-      <c r="AR5" s="65"/>
-      <c r="AS5" s="62"/>
-      <c r="AT5" s="65" t="s">
+      <c r="AP5" s="37"/>
+      <c r="AQ5" s="37"/>
+      <c r="AR5" s="37"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="AU5" s="65"/>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="65"/>
-      <c r="AX5" s="62"/>
-      <c r="AY5" s="65" t="s">
+      <c r="AU5" s="37"/>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="37"/>
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="AZ5" s="65"/>
-      <c r="BA5" s="65"/>
-      <c r="BB5" s="65"/>
-      <c r="BC5" s="62"/>
-      <c r="BD5" s="65" t="s">
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="37"/>
+      <c r="BB5" s="37"/>
+      <c r="BC5" s="46"/>
+      <c r="BD5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="BE5" s="65"/>
-      <c r="BF5" s="65"/>
-      <c r="BG5" s="65"/>
-      <c r="BH5" s="62"/>
-      <c r="BI5" s="65" t="s">
+      <c r="BE5" s="37"/>
+      <c r="BF5" s="37"/>
+      <c r="BG5" s="37"/>
+      <c r="BH5" s="46"/>
+      <c r="BI5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="BJ5" s="65"/>
-      <c r="BK5" s="65"/>
-      <c r="BL5" s="65"/>
-      <c r="BM5" s="62"/>
-      <c r="BN5" s="65" t="s">
+      <c r="BJ5" s="37"/>
+      <c r="BK5" s="37"/>
+      <c r="BL5" s="37"/>
+      <c r="BM5" s="46"/>
+      <c r="BN5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="BO5" s="65"/>
-      <c r="BP5" s="65"/>
-      <c r="BQ5" s="65"/>
+      <c r="BO5" s="37"/>
+      <c r="BP5" s="37"/>
+      <c r="BQ5" s="37"/>
       <c r="BR5" s="8"/>
       <c r="BS5" s="8"/>
     </row>
     <row r="6" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="76"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="63"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1591,7 +1591,7 @@
       <c r="N6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="63"/>
+      <c r="O6" s="47"/>
       <c r="P6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="S6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="67"/>
+      <c r="T6" s="52"/>
       <c r="U6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1617,7 +1617,7 @@
       <c r="X6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Y6" s="63"/>
+      <c r="Y6" s="47"/>
       <c r="Z6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1630,7 +1630,7 @@
       <c r="AC6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AD6" s="63"/>
+      <c r="AD6" s="47"/>
       <c r="AE6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1643,7 +1643,7 @@
       <c r="AH6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AI6" s="63"/>
+      <c r="AI6" s="47"/>
       <c r="AJ6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="AM6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AN6" s="63"/>
+      <c r="AN6" s="47"/>
       <c r="AO6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="AR6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AS6" s="63"/>
+      <c r="AS6" s="47"/>
       <c r="AT6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="AW6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AX6" s="63"/>
+      <c r="AX6" s="47"/>
       <c r="AY6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="BB6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BC6" s="63"/>
+      <c r="BC6" s="47"/>
       <c r="BD6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="BG6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BH6" s="63"/>
+      <c r="BH6" s="47"/>
       <c r="BI6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="BL6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BM6" s="63"/>
+      <c r="BM6" s="47"/>
       <c r="BN6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1740,71 +1740,71 @@
     <row r="7" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="76"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="63"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="63"/>
+      <c r="O7" s="47"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="67"/>
+      <c r="T7" s="52"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="63"/>
+      <c r="Y7" s="47"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="63"/>
+      <c r="AD7" s="47"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
-      <c r="AI7" s="63"/>
+      <c r="AI7" s="47"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
-      <c r="AN7" s="63"/>
+      <c r="AN7" s="47"/>
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
-      <c r="AS7" s="63"/>
+      <c r="AS7" s="47"/>
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
-      <c r="AX7" s="63"/>
+      <c r="AX7" s="47"/>
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
-      <c r="BC7" s="63"/>
+      <c r="BC7" s="47"/>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
       <c r="BG7" s="1"/>
-      <c r="BH7" s="63"/>
+      <c r="BH7" s="47"/>
       <c r="BI7" s="1"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
-      <c r="BM7" s="63"/>
+      <c r="BM7" s="47"/>
       <c r="BN7" s="1"/>
       <c r="BO7" s="1"/>
       <c r="BP7" s="1"/>
@@ -1815,144 +1815,144 @@
     <row r="8" spans="1:71" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="63"/>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="58"/>
-      <c r="AG8" s="58"/>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="63"/>
-      <c r="AJ8" s="57"/>
-      <c r="AK8" s="58"/>
-      <c r="AL8" s="58"/>
-      <c r="AM8" s="59"/>
-      <c r="AN8" s="63"/>
-      <c r="AO8" s="57"/>
-      <c r="AP8" s="58"/>
-      <c r="AQ8" s="58"/>
-      <c r="AR8" s="59"/>
-      <c r="AS8" s="63"/>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="58"/>
-      <c r="AV8" s="58"/>
-      <c r="AW8" s="59"/>
-      <c r="AX8" s="63"/>
-      <c r="AY8" s="57"/>
-      <c r="AZ8" s="58"/>
-      <c r="BA8" s="58"/>
-      <c r="BB8" s="59"/>
-      <c r="BC8" s="63"/>
-      <c r="BD8" s="57"/>
-      <c r="BE8" s="58"/>
-      <c r="BF8" s="58"/>
-      <c r="BG8" s="59"/>
-      <c r="BH8" s="63"/>
-      <c r="BI8" s="57"/>
-      <c r="BJ8" s="58"/>
-      <c r="BK8" s="58"/>
-      <c r="BL8" s="59"/>
-      <c r="BM8" s="63"/>
-      <c r="BN8" s="57"/>
-      <c r="BO8" s="58"/>
-      <c r="BP8" s="58"/>
-      <c r="BQ8" s="59"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="33"/>
+      <c r="AP8" s="34"/>
+      <c r="AQ8" s="34"/>
+      <c r="AR8" s="35"/>
+      <c r="AS8" s="47"/>
+      <c r="AT8" s="33"/>
+      <c r="AU8" s="34"/>
+      <c r="AV8" s="34"/>
+      <c r="AW8" s="35"/>
+      <c r="AX8" s="47"/>
+      <c r="AY8" s="33"/>
+      <c r="AZ8" s="34"/>
+      <c r="BA8" s="34"/>
+      <c r="BB8" s="35"/>
+      <c r="BC8" s="47"/>
+      <c r="BD8" s="33"/>
+      <c r="BE8" s="34"/>
+      <c r="BF8" s="34"/>
+      <c r="BG8" s="35"/>
+      <c r="BH8" s="47"/>
+      <c r="BI8" s="33"/>
+      <c r="BJ8" s="34"/>
+      <c r="BK8" s="34"/>
+      <c r="BL8" s="35"/>
+      <c r="BM8" s="47"/>
+      <c r="BN8" s="33"/>
+      <c r="BO8" s="34"/>
+      <c r="BP8" s="34"/>
+      <c r="BQ8" s="35"/>
       <c r="BR8" s="10"/>
       <c r="BS8" s="10"/>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="76"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="63"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="63"/>
+      <c r="O9" s="47"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="67"/>
+      <c r="T9" s="52"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="63"/>
+      <c r="Y9" s="47"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
-      <c r="AD9" s="63"/>
+      <c r="AD9" s="47"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
-      <c r="AI9" s="63"/>
+      <c r="AI9" s="47"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
-      <c r="AN9" s="63"/>
+      <c r="AN9" s="47"/>
       <c r="AO9" s="2"/>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
-      <c r="AS9" s="63"/>
+      <c r="AS9" s="47"/>
       <c r="AT9" s="2"/>
       <c r="AU9" s="1"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
-      <c r="AX9" s="63"/>
+      <c r="AX9" s="47"/>
       <c r="AY9" s="2"/>
       <c r="AZ9" s="1"/>
       <c r="BA9" s="2"/>
       <c r="BB9" s="2"/>
-      <c r="BC9" s="63"/>
+      <c r="BC9" s="47"/>
       <c r="BD9" s="2"/>
       <c r="BE9" s="1"/>
       <c r="BF9" s="2"/>
       <c r="BG9" s="2"/>
-      <c r="BH9" s="63"/>
+      <c r="BH9" s="47"/>
       <c r="BI9" s="2"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="2"/>
       <c r="BL9" s="2"/>
-      <c r="BM9" s="63"/>
+      <c r="BM9" s="47"/>
       <c r="BN9" s="2"/>
       <c r="BO9" s="1"/>
       <c r="BP9" s="2"/>
@@ -1963,144 +1963,144 @@
     <row r="10" spans="1:71" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="63"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="58"/>
-      <c r="AG10" s="58"/>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="63"/>
-      <c r="AJ10" s="57"/>
-      <c r="AK10" s="58"/>
-      <c r="AL10" s="58"/>
-      <c r="AM10" s="59"/>
-      <c r="AN10" s="63"/>
-      <c r="AO10" s="57"/>
-      <c r="AP10" s="58"/>
-      <c r="AQ10" s="58"/>
-      <c r="AR10" s="59"/>
-      <c r="AS10" s="63"/>
-      <c r="AT10" s="57"/>
-      <c r="AU10" s="58"/>
-      <c r="AV10" s="58"/>
-      <c r="AW10" s="59"/>
-      <c r="AX10" s="63"/>
-      <c r="AY10" s="57"/>
-      <c r="AZ10" s="58"/>
-      <c r="BA10" s="58"/>
-      <c r="BB10" s="59"/>
-      <c r="BC10" s="63"/>
-      <c r="BD10" s="57"/>
-      <c r="BE10" s="58"/>
-      <c r="BF10" s="58"/>
-      <c r="BG10" s="59"/>
-      <c r="BH10" s="63"/>
-      <c r="BI10" s="57"/>
-      <c r="BJ10" s="58"/>
-      <c r="BK10" s="58"/>
-      <c r="BL10" s="59"/>
-      <c r="BM10" s="63"/>
-      <c r="BN10" s="57"/>
-      <c r="BO10" s="58"/>
-      <c r="BP10" s="58"/>
-      <c r="BQ10" s="59"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="47"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="35"/>
+      <c r="AN10" s="47"/>
+      <c r="AO10" s="33"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="35"/>
+      <c r="AS10" s="47"/>
+      <c r="AT10" s="33"/>
+      <c r="AU10" s="34"/>
+      <c r="AV10" s="34"/>
+      <c r="AW10" s="35"/>
+      <c r="AX10" s="47"/>
+      <c r="AY10" s="33"/>
+      <c r="AZ10" s="34"/>
+      <c r="BA10" s="34"/>
+      <c r="BB10" s="35"/>
+      <c r="BC10" s="47"/>
+      <c r="BD10" s="33"/>
+      <c r="BE10" s="34"/>
+      <c r="BF10" s="34"/>
+      <c r="BG10" s="35"/>
+      <c r="BH10" s="47"/>
+      <c r="BI10" s="33"/>
+      <c r="BJ10" s="34"/>
+      <c r="BK10" s="34"/>
+      <c r="BL10" s="35"/>
+      <c r="BM10" s="47"/>
+      <c r="BN10" s="33"/>
+      <c r="BO10" s="34"/>
+      <c r="BP10" s="34"/>
+      <c r="BQ10" s="35"/>
       <c r="BR10" s="10"/>
       <c r="BS10" s="10"/>
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="76"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="63"/>
+      <c r="J11" s="47"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="1"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="63"/>
+      <c r="O11" s="47"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="67"/>
+      <c r="T11" s="52"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="63"/>
+      <c r="Y11" s="47"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="63"/>
+      <c r="AD11" s="47"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
-      <c r="AI11" s="63"/>
+      <c r="AI11" s="47"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
-      <c r="AN11" s="63"/>
+      <c r="AN11" s="47"/>
       <c r="AO11" s="2"/>
       <c r="AP11" s="1"/>
       <c r="AQ11" s="2"/>
       <c r="AR11" s="2"/>
-      <c r="AS11" s="63"/>
+      <c r="AS11" s="47"/>
       <c r="AT11" s="2"/>
       <c r="AU11" s="1"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
-      <c r="AX11" s="63"/>
+      <c r="AX11" s="47"/>
       <c r="AY11" s="2"/>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="2"/>
       <c r="BB11" s="2"/>
-      <c r="BC11" s="63"/>
+      <c r="BC11" s="47"/>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
       <c r="BG11" s="1"/>
-      <c r="BH11" s="63"/>
+      <c r="BH11" s="47"/>
       <c r="BI11" s="2"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="2"/>
       <c r="BL11" s="2"/>
-      <c r="BM11" s="63"/>
+      <c r="BM11" s="47"/>
       <c r="BN11" s="2"/>
       <c r="BO11" s="1"/>
       <c r="BP11" s="2"/>
@@ -2111,144 +2111,144 @@
     <row r="12" spans="1:71" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="63"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="63"/>
-      <c r="AJ12" s="57"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="58"/>
-      <c r="AM12" s="59"/>
-      <c r="AN12" s="63"/>
-      <c r="AO12" s="57"/>
-      <c r="AP12" s="58"/>
-      <c r="AQ12" s="58"/>
-      <c r="AR12" s="59"/>
-      <c r="AS12" s="63"/>
-      <c r="AT12" s="57"/>
-      <c r="AU12" s="58"/>
-      <c r="AV12" s="58"/>
-      <c r="AW12" s="59"/>
-      <c r="AX12" s="63"/>
-      <c r="AY12" s="57"/>
-      <c r="AZ12" s="58"/>
-      <c r="BA12" s="58"/>
-      <c r="BB12" s="59"/>
-      <c r="BC12" s="63"/>
-      <c r="BD12" s="57"/>
-      <c r="BE12" s="58"/>
-      <c r="BF12" s="58"/>
-      <c r="BG12" s="59"/>
-      <c r="BH12" s="63"/>
-      <c r="BI12" s="57"/>
-      <c r="BJ12" s="58"/>
-      <c r="BK12" s="58"/>
-      <c r="BL12" s="59"/>
-      <c r="BM12" s="63"/>
-      <c r="BN12" s="57"/>
-      <c r="BO12" s="58"/>
-      <c r="BP12" s="58"/>
-      <c r="BQ12" s="59"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="47"/>
+      <c r="AJ12" s="33"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="34"/>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="47"/>
+      <c r="AO12" s="33"/>
+      <c r="AP12" s="34"/>
+      <c r="AQ12" s="34"/>
+      <c r="AR12" s="35"/>
+      <c r="AS12" s="47"/>
+      <c r="AT12" s="33"/>
+      <c r="AU12" s="34"/>
+      <c r="AV12" s="34"/>
+      <c r="AW12" s="35"/>
+      <c r="AX12" s="47"/>
+      <c r="AY12" s="33"/>
+      <c r="AZ12" s="34"/>
+      <c r="BA12" s="34"/>
+      <c r="BB12" s="35"/>
+      <c r="BC12" s="47"/>
+      <c r="BD12" s="33"/>
+      <c r="BE12" s="34"/>
+      <c r="BF12" s="34"/>
+      <c r="BG12" s="35"/>
+      <c r="BH12" s="47"/>
+      <c r="BI12" s="33"/>
+      <c r="BJ12" s="34"/>
+      <c r="BK12" s="34"/>
+      <c r="BL12" s="35"/>
+      <c r="BM12" s="47"/>
+      <c r="BN12" s="33"/>
+      <c r="BO12" s="34"/>
+      <c r="BP12" s="34"/>
+      <c r="BQ12" s="35"/>
       <c r="BR12" s="10"/>
       <c r="BS12" s="10"/>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="76"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="44"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="63"/>
+      <c r="J13" s="47"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="63"/>
+      <c r="O13" s="47"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="67"/>
+      <c r="T13" s="52"/>
       <c r="U13" s="2"/>
       <c r="V13" s="1"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="63"/>
+      <c r="Y13" s="47"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
-      <c r="AD13" s="63"/>
+      <c r="AD13" s="47"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="2"/>
-      <c r="AI13" s="63"/>
+      <c r="AI13" s="47"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
-      <c r="AN13" s="63"/>
+      <c r="AN13" s="47"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
-      <c r="AS13" s="63"/>
+      <c r="AS13" s="47"/>
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
-      <c r="AX13" s="63"/>
+      <c r="AX13" s="47"/>
       <c r="AY13" s="11"/>
       <c r="AZ13" s="12"/>
       <c r="BA13" s="11"/>
       <c r="BB13" s="11"/>
-      <c r="BC13" s="63"/>
+      <c r="BC13" s="47"/>
       <c r="BD13" s="2"/>
       <c r="BE13" s="2"/>
       <c r="BF13" s="2"/>
       <c r="BG13" s="2"/>
-      <c r="BH13" s="63"/>
+      <c r="BH13" s="47"/>
       <c r="BI13" s="2"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="2"/>
       <c r="BL13" s="2"/>
-      <c r="BM13" s="63"/>
+      <c r="BM13" s="47"/>
       <c r="BN13" s="2"/>
       <c r="BO13" s="1"/>
       <c r="BP13" s="2"/>
@@ -2259,144 +2259,144 @@
     <row r="14" spans="1:71" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="63"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="63"/>
-      <c r="AJ14" s="57"/>
-      <c r="AK14" s="58"/>
-      <c r="AL14" s="58"/>
-      <c r="AM14" s="59"/>
-      <c r="AN14" s="63"/>
-      <c r="AO14" s="57"/>
-      <c r="AP14" s="58"/>
-      <c r="AQ14" s="58"/>
-      <c r="AR14" s="59"/>
-      <c r="AS14" s="63"/>
-      <c r="AT14" s="57"/>
-      <c r="AU14" s="58"/>
-      <c r="AV14" s="58"/>
-      <c r="AW14" s="59"/>
-      <c r="AX14" s="63"/>
-      <c r="AY14" s="57"/>
-      <c r="AZ14" s="58"/>
-      <c r="BA14" s="58"/>
-      <c r="BB14" s="59"/>
-      <c r="BC14" s="63"/>
-      <c r="BD14" s="57"/>
-      <c r="BE14" s="58"/>
-      <c r="BF14" s="58"/>
-      <c r="BG14" s="59"/>
-      <c r="BH14" s="63"/>
-      <c r="BI14" s="57"/>
-      <c r="BJ14" s="58"/>
-      <c r="BK14" s="58"/>
-      <c r="BL14" s="59"/>
-      <c r="BM14" s="63"/>
-      <c r="BN14" s="57"/>
-      <c r="BO14" s="58"/>
-      <c r="BP14" s="58"/>
-      <c r="BQ14" s="59"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="33"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="35"/>
+      <c r="AN14" s="47"/>
+      <c r="AO14" s="33"/>
+      <c r="AP14" s="34"/>
+      <c r="AQ14" s="34"/>
+      <c r="AR14" s="35"/>
+      <c r="AS14" s="47"/>
+      <c r="AT14" s="33"/>
+      <c r="AU14" s="34"/>
+      <c r="AV14" s="34"/>
+      <c r="AW14" s="35"/>
+      <c r="AX14" s="47"/>
+      <c r="AY14" s="33"/>
+      <c r="AZ14" s="34"/>
+      <c r="BA14" s="34"/>
+      <c r="BB14" s="35"/>
+      <c r="BC14" s="47"/>
+      <c r="BD14" s="33"/>
+      <c r="BE14" s="34"/>
+      <c r="BF14" s="34"/>
+      <c r="BG14" s="35"/>
+      <c r="BH14" s="47"/>
+      <c r="BI14" s="33"/>
+      <c r="BJ14" s="34"/>
+      <c r="BK14" s="34"/>
+      <c r="BL14" s="35"/>
+      <c r="BM14" s="47"/>
+      <c r="BN14" s="33"/>
+      <c r="BO14" s="34"/>
+      <c r="BP14" s="34"/>
+      <c r="BQ14" s="35"/>
       <c r="BR14" s="10"/>
       <c r="BS14" s="10"/>
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="76"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="44"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="63"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="63"/>
+      <c r="O15" s="47"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="67"/>
+      <c r="T15" s="52"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="63"/>
+      <c r="Y15" s="47"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="63"/>
+      <c r="AD15" s="47"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
-      <c r="AI15" s="63"/>
+      <c r="AI15" s="47"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
-      <c r="AN15" s="63"/>
+      <c r="AN15" s="47"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
       <c r="AR15" s="2"/>
-      <c r="AS15" s="63"/>
+      <c r="AS15" s="47"/>
       <c r="AT15" s="2"/>
       <c r="AU15" s="1"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
-      <c r="AX15" s="63"/>
+      <c r="AX15" s="47"/>
       <c r="AY15" s="2"/>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="2"/>
       <c r="BB15" s="2"/>
-      <c r="BC15" s="63"/>
+      <c r="BC15" s="47"/>
       <c r="BD15" s="2"/>
       <c r="BE15" s="2"/>
       <c r="BF15" s="2"/>
       <c r="BG15" s="2"/>
-      <c r="BH15" s="63"/>
+      <c r="BH15" s="47"/>
       <c r="BI15" s="2"/>
       <c r="BJ15" s="2"/>
       <c r="BK15" s="2"/>
       <c r="BL15" s="2"/>
-      <c r="BM15" s="63"/>
+      <c r="BM15" s="47"/>
       <c r="BN15" s="2"/>
       <c r="BO15" s="2"/>
       <c r="BP15" s="2"/>
@@ -2405,585 +2405,585 @@
       <c r="BS15" s="7"/>
     </row>
     <row r="16" spans="1:71" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="64"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="58"/>
-      <c r="AG16" s="58"/>
-      <c r="AH16" s="59"/>
-      <c r="AI16" s="64"/>
-      <c r="AJ16" s="57"/>
-      <c r="AK16" s="58"/>
-      <c r="AL16" s="58"/>
-      <c r="AM16" s="59"/>
-      <c r="AN16" s="64"/>
-      <c r="AO16" s="57"/>
-      <c r="AP16" s="58"/>
-      <c r="AQ16" s="58"/>
-      <c r="AR16" s="59"/>
-      <c r="AS16" s="64"/>
-      <c r="AT16" s="57"/>
-      <c r="AU16" s="58"/>
-      <c r="AV16" s="58"/>
-      <c r="AW16" s="59"/>
-      <c r="AX16" s="64"/>
-      <c r="AY16" s="57"/>
-      <c r="AZ16" s="58"/>
-      <c r="BA16" s="58"/>
-      <c r="BB16" s="59"/>
-      <c r="BC16" s="64"/>
-      <c r="BD16" s="57"/>
-      <c r="BE16" s="58"/>
-      <c r="BF16" s="58"/>
-      <c r="BG16" s="59"/>
-      <c r="BH16" s="64"/>
-      <c r="BI16" s="57"/>
-      <c r="BJ16" s="58"/>
-      <c r="BK16" s="58"/>
-      <c r="BL16" s="59"/>
-      <c r="BM16" s="64"/>
-      <c r="BN16" s="57"/>
-      <c r="BO16" s="58"/>
-      <c r="BP16" s="58"/>
-      <c r="BQ16" s="59"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="33"/>
+      <c r="AK16" s="34"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="48"/>
+      <c r="AO16" s="33"/>
+      <c r="AP16" s="34"/>
+      <c r="AQ16" s="34"/>
+      <c r="AR16" s="35"/>
+      <c r="AS16" s="48"/>
+      <c r="AT16" s="33"/>
+      <c r="AU16" s="34"/>
+      <c r="AV16" s="34"/>
+      <c r="AW16" s="35"/>
+      <c r="AX16" s="48"/>
+      <c r="AY16" s="33"/>
+      <c r="AZ16" s="34"/>
+      <c r="BA16" s="34"/>
+      <c r="BB16" s="35"/>
+      <c r="BC16" s="48"/>
+      <c r="BD16" s="33"/>
+      <c r="BE16" s="34"/>
+      <c r="BF16" s="34"/>
+      <c r="BG16" s="35"/>
+      <c r="BH16" s="48"/>
+      <c r="BI16" s="33"/>
+      <c r="BJ16" s="34"/>
+      <c r="BK16" s="34"/>
+      <c r="BL16" s="35"/>
+      <c r="BM16" s="48"/>
+      <c r="BN16" s="33"/>
+      <c r="BO16" s="34"/>
+      <c r="BP16" s="34"/>
+      <c r="BQ16" s="35"/>
     </row>
     <row r="17" spans="3:71" x14ac:dyDescent="0.25">
       <c r="BR17" s="7"/>
       <c r="BS17" s="7"/>
     </row>
     <row r="18" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="45" t="s">
+      <c r="D18" s="55"/>
+      <c r="E18" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="46"/>
-      <c r="AJ18" s="46"/>
-      <c r="AK18" s="46"/>
-      <c r="AL18" s="46"/>
-      <c r="AM18" s="46"/>
-      <c r="AN18" s="46"/>
-      <c r="AO18" s="46"/>
-      <c r="AP18" s="46"/>
-      <c r="AQ18" s="46"/>
-      <c r="AR18" s="46"/>
-      <c r="AS18" s="46"/>
-      <c r="AT18" s="46"/>
-      <c r="AU18" s="46"/>
-      <c r="AV18" s="46"/>
-      <c r="AW18" s="46"/>
-      <c r="AX18" s="47"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="67"/>
+      <c r="AC18" s="67"/>
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="67"/>
+      <c r="AF18" s="67"/>
+      <c r="AG18" s="67"/>
+      <c r="AH18" s="67"/>
+      <c r="AI18" s="67"/>
+      <c r="AJ18" s="67"/>
+      <c r="AK18" s="67"/>
+      <c r="AL18" s="67"/>
+      <c r="AM18" s="67"/>
+      <c r="AN18" s="67"/>
+      <c r="AO18" s="67"/>
+      <c r="AP18" s="67"/>
+      <c r="AQ18" s="67"/>
+      <c r="AR18" s="67"/>
+      <c r="AS18" s="67"/>
+      <c r="AT18" s="67"/>
+      <c r="AU18" s="67"/>
+      <c r="AV18" s="67"/>
+      <c r="AW18" s="67"/>
+      <c r="AX18" s="68"/>
     </row>
     <row r="19" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="49"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="49"/>
-      <c r="AF19" s="49"/>
-      <c r="AG19" s="49"/>
-      <c r="AH19" s="49"/>
-      <c r="AI19" s="49"/>
-      <c r="AJ19" s="49"/>
-      <c r="AK19" s="49"/>
-      <c r="AL19" s="49"/>
-      <c r="AM19" s="49"/>
-      <c r="AN19" s="49"/>
-      <c r="AO19" s="49"/>
-      <c r="AP19" s="49"/>
-      <c r="AQ19" s="49"/>
-      <c r="AR19" s="49"/>
-      <c r="AS19" s="49"/>
-      <c r="AT19" s="49"/>
-      <c r="AU19" s="49"/>
-      <c r="AV19" s="49"/>
-      <c r="AW19" s="49"/>
-      <c r="AX19" s="50"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="70"/>
+      <c r="AD19" s="70"/>
+      <c r="AE19" s="70"/>
+      <c r="AF19" s="70"/>
+      <c r="AG19" s="70"/>
+      <c r="AH19" s="70"/>
+      <c r="AI19" s="70"/>
+      <c r="AJ19" s="70"/>
+      <c r="AK19" s="70"/>
+      <c r="AL19" s="70"/>
+      <c r="AM19" s="70"/>
+      <c r="AN19" s="70"/>
+      <c r="AO19" s="70"/>
+      <c r="AP19" s="70"/>
+      <c r="AQ19" s="70"/>
+      <c r="AR19" s="70"/>
+      <c r="AS19" s="70"/>
+      <c r="AT19" s="70"/>
+      <c r="AU19" s="70"/>
+      <c r="AV19" s="70"/>
+      <c r="AW19" s="70"/>
+      <c r="AX19" s="71"/>
     </row>
     <row r="20" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="51" t="s">
+      <c r="D20" s="55"/>
+      <c r="E20" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="52"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="52"/>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="52"/>
-      <c r="AJ20" s="52"/>
-      <c r="AK20" s="52"/>
-      <c r="AL20" s="52"/>
-      <c r="AM20" s="52"/>
-      <c r="AN20" s="52"/>
-      <c r="AO20" s="52"/>
-      <c r="AP20" s="52"/>
-      <c r="AQ20" s="52"/>
-      <c r="AR20" s="52"/>
-      <c r="AS20" s="52"/>
-      <c r="AT20" s="52"/>
-      <c r="AU20" s="52"/>
-      <c r="AV20" s="52"/>
-      <c r="AW20" s="52"/>
-      <c r="AX20" s="53"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="73"/>
+      <c r="AB20" s="73"/>
+      <c r="AC20" s="73"/>
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="73"/>
+      <c r="AF20" s="73"/>
+      <c r="AG20" s="73"/>
+      <c r="AH20" s="73"/>
+      <c r="AI20" s="73"/>
+      <c r="AJ20" s="73"/>
+      <c r="AK20" s="73"/>
+      <c r="AL20" s="73"/>
+      <c r="AM20" s="73"/>
+      <c r="AN20" s="73"/>
+      <c r="AO20" s="73"/>
+      <c r="AP20" s="73"/>
+      <c r="AQ20" s="73"/>
+      <c r="AR20" s="73"/>
+      <c r="AS20" s="73"/>
+      <c r="AT20" s="73"/>
+      <c r="AU20" s="73"/>
+      <c r="AV20" s="73"/>
+      <c r="AW20" s="73"/>
+      <c r="AX20" s="74"/>
     </row>
     <row r="21" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="55"/>
-      <c r="AC21" s="55"/>
-      <c r="AD21" s="55"/>
-      <c r="AE21" s="55"/>
-      <c r="AF21" s="55"/>
-      <c r="AG21" s="55"/>
-      <c r="AH21" s="55"/>
-      <c r="AI21" s="55"/>
-      <c r="AJ21" s="55"/>
-      <c r="AK21" s="55"/>
-      <c r="AL21" s="55"/>
-      <c r="AM21" s="55"/>
-      <c r="AN21" s="55"/>
-      <c r="AO21" s="55"/>
-      <c r="AP21" s="55"/>
-      <c r="AQ21" s="55"/>
-      <c r="AR21" s="55"/>
-      <c r="AS21" s="55"/>
-      <c r="AT21" s="55"/>
-      <c r="AU21" s="55"/>
-      <c r="AV21" s="55"/>
-      <c r="AW21" s="55"/>
-      <c r="AX21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
+      <c r="U21" s="76"/>
+      <c r="V21" s="76"/>
+      <c r="W21" s="76"/>
+      <c r="X21" s="76"/>
+      <c r="Y21" s="76"/>
+      <c r="Z21" s="76"/>
+      <c r="AA21" s="76"/>
+      <c r="AB21" s="76"/>
+      <c r="AC21" s="76"/>
+      <c r="AD21" s="76"/>
+      <c r="AE21" s="76"/>
+      <c r="AF21" s="76"/>
+      <c r="AG21" s="76"/>
+      <c r="AH21" s="76"/>
+      <c r="AI21" s="76"/>
+      <c r="AJ21" s="76"/>
+      <c r="AK21" s="76"/>
+      <c r="AL21" s="76"/>
+      <c r="AM21" s="76"/>
+      <c r="AN21" s="76"/>
+      <c r="AO21" s="76"/>
+      <c r="AP21" s="76"/>
+      <c r="AQ21" s="76"/>
+      <c r="AR21" s="76"/>
+      <c r="AS21" s="76"/>
+      <c r="AT21" s="76"/>
+      <c r="AU21" s="76"/>
+      <c r="AV21" s="76"/>
+      <c r="AW21" s="76"/>
+      <c r="AX21" s="77"/>
     </row>
     <row r="22" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="38"/>
-      <c r="AF22" s="38"/>
-      <c r="AG22" s="38"/>
-      <c r="AH22" s="38"/>
-      <c r="AI22" s="38"/>
-      <c r="AJ22" s="38"/>
-      <c r="AK22" s="38"/>
-      <c r="AL22" s="38"/>
-      <c r="AM22" s="38"/>
-      <c r="AN22" s="38"/>
-      <c r="AO22" s="38"/>
-      <c r="AP22" s="38"/>
-      <c r="AQ22" s="38"/>
-      <c r="AR22" s="38"/>
-      <c r="AS22" s="38"/>
-      <c r="AT22" s="38"/>
-      <c r="AU22" s="38"/>
-      <c r="AV22" s="38"/>
-      <c r="AW22" s="38"/>
-      <c r="AX22" s="39"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="59"/>
+      <c r="AH22" s="59"/>
+      <c r="AI22" s="59"/>
+      <c r="AJ22" s="59"/>
+      <c r="AK22" s="59"/>
+      <c r="AL22" s="59"/>
+      <c r="AM22" s="59"/>
+      <c r="AN22" s="59"/>
+      <c r="AO22" s="59"/>
+      <c r="AP22" s="59"/>
+      <c r="AQ22" s="59"/>
+      <c r="AR22" s="59"/>
+      <c r="AS22" s="59"/>
+      <c r="AT22" s="59"/>
+      <c r="AU22" s="59"/>
+      <c r="AV22" s="59"/>
+      <c r="AW22" s="59"/>
+      <c r="AX22" s="60"/>
     </row>
     <row r="23" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="41"/>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="41"/>
-      <c r="AK23" s="41"/>
-      <c r="AL23" s="41"/>
-      <c r="AM23" s="41"/>
-      <c r="AN23" s="41"/>
-      <c r="AO23" s="41"/>
-      <c r="AP23" s="41"/>
-      <c r="AQ23" s="41"/>
-      <c r="AR23" s="41"/>
-      <c r="AS23" s="41"/>
-      <c r="AT23" s="41"/>
-      <c r="AU23" s="41"/>
-      <c r="AV23" s="41"/>
-      <c r="AW23" s="41"/>
-      <c r="AX23" s="42"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="62"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="62"/>
+      <c r="AJ23" s="62"/>
+      <c r="AK23" s="62"/>
+      <c r="AL23" s="62"/>
+      <c r="AM23" s="62"/>
+      <c r="AN23" s="62"/>
+      <c r="AO23" s="62"/>
+      <c r="AP23" s="62"/>
+      <c r="AQ23" s="62"/>
+      <c r="AR23" s="62"/>
+      <c r="AS23" s="62"/>
+      <c r="AT23" s="62"/>
+      <c r="AU23" s="62"/>
+      <c r="AV23" s="62"/>
+      <c r="AW23" s="62"/>
+      <c r="AX23" s="63"/>
     </row>
     <row r="24" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38"/>
-      <c r="AI24" s="38"/>
-      <c r="AJ24" s="38"/>
-      <c r="AK24" s="38"/>
-      <c r="AL24" s="38"/>
-      <c r="AM24" s="38"/>
-      <c r="AN24" s="38"/>
-      <c r="AO24" s="38"/>
-      <c r="AP24" s="38"/>
-      <c r="AQ24" s="38"/>
-      <c r="AR24" s="38"/>
-      <c r="AS24" s="38"/>
-      <c r="AT24" s="38"/>
-      <c r="AU24" s="38"/>
-      <c r="AV24" s="38"/>
-      <c r="AW24" s="38"/>
-      <c r="AX24" s="39"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="59"/>
+      <c r="AH24" s="59"/>
+      <c r="AI24" s="59"/>
+      <c r="AJ24" s="59"/>
+      <c r="AK24" s="59"/>
+      <c r="AL24" s="59"/>
+      <c r="AM24" s="59"/>
+      <c r="AN24" s="59"/>
+      <c r="AO24" s="59"/>
+      <c r="AP24" s="59"/>
+      <c r="AQ24" s="59"/>
+      <c r="AR24" s="59"/>
+      <c r="AS24" s="59"/>
+      <c r="AT24" s="59"/>
+      <c r="AU24" s="59"/>
+      <c r="AV24" s="59"/>
+      <c r="AW24" s="59"/>
+      <c r="AX24" s="60"/>
     </row>
     <row r="25" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="41"/>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="41"/>
-      <c r="AF25" s="41"/>
-      <c r="AG25" s="41"/>
-      <c r="AH25" s="41"/>
-      <c r="AI25" s="41"/>
-      <c r="AJ25" s="41"/>
-      <c r="AK25" s="41"/>
-      <c r="AL25" s="41"/>
-      <c r="AM25" s="41"/>
-      <c r="AN25" s="41"/>
-      <c r="AO25" s="41"/>
-      <c r="AP25" s="41"/>
-      <c r="AQ25" s="41"/>
-      <c r="AR25" s="41"/>
-      <c r="AS25" s="41"/>
-      <c r="AT25" s="41"/>
-      <c r="AU25" s="41"/>
-      <c r="AV25" s="41"/>
-      <c r="AW25" s="41"/>
-      <c r="AX25" s="42"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="62"/>
+      <c r="AD25" s="62"/>
+      <c r="AE25" s="62"/>
+      <c r="AF25" s="62"/>
+      <c r="AG25" s="62"/>
+      <c r="AH25" s="62"/>
+      <c r="AI25" s="62"/>
+      <c r="AJ25" s="62"/>
+      <c r="AK25" s="62"/>
+      <c r="AL25" s="62"/>
+      <c r="AM25" s="62"/>
+      <c r="AN25" s="62"/>
+      <c r="AO25" s="62"/>
+      <c r="AP25" s="62"/>
+      <c r="AQ25" s="62"/>
+      <c r="AR25" s="62"/>
+      <c r="AS25" s="62"/>
+      <c r="AT25" s="62"/>
+      <c r="AU25" s="62"/>
+      <c r="AV25" s="62"/>
+      <c r="AW25" s="62"/>
+      <c r="AX25" s="63"/>
     </row>
     <row r="26" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="38"/>
-      <c r="AE26" s="38"/>
-      <c r="AF26" s="38"/>
-      <c r="AG26" s="38"/>
-      <c r="AH26" s="38"/>
-      <c r="AI26" s="38"/>
-      <c r="AJ26" s="38"/>
-      <c r="AK26" s="38"/>
-      <c r="AL26" s="38"/>
-      <c r="AM26" s="38"/>
-      <c r="AN26" s="38"/>
-      <c r="AO26" s="38"/>
-      <c r="AP26" s="38"/>
-      <c r="AQ26" s="38"/>
-      <c r="AR26" s="38"/>
-      <c r="AS26" s="38"/>
-      <c r="AT26" s="38"/>
-      <c r="AU26" s="38"/>
-      <c r="AV26" s="38"/>
-      <c r="AW26" s="38"/>
-      <c r="AX26" s="39"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="59"/>
+      <c r="AH26" s="59"/>
+      <c r="AI26" s="59"/>
+      <c r="AJ26" s="59"/>
+      <c r="AK26" s="59"/>
+      <c r="AL26" s="59"/>
+      <c r="AM26" s="59"/>
+      <c r="AN26" s="59"/>
+      <c r="AO26" s="59"/>
+      <c r="AP26" s="59"/>
+      <c r="AQ26" s="59"/>
+      <c r="AR26" s="59"/>
+      <c r="AS26" s="59"/>
+      <c r="AT26" s="59"/>
+      <c r="AU26" s="59"/>
+      <c r="AV26" s="59"/>
+      <c r="AW26" s="59"/>
+      <c r="AX26" s="60"/>
     </row>
     <row r="27" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="41"/>
-      <c r="AF27" s="41"/>
-      <c r="AG27" s="41"/>
-      <c r="AH27" s="41"/>
-      <c r="AI27" s="41"/>
-      <c r="AJ27" s="41"/>
-      <c r="AK27" s="41"/>
-      <c r="AL27" s="41"/>
-      <c r="AM27" s="41"/>
-      <c r="AN27" s="41"/>
-      <c r="AO27" s="41"/>
-      <c r="AP27" s="41"/>
-      <c r="AQ27" s="41"/>
-      <c r="AR27" s="41"/>
-      <c r="AS27" s="41"/>
-      <c r="AT27" s="41"/>
-      <c r="AU27" s="41"/>
-      <c r="AV27" s="41"/>
-      <c r="AW27" s="41"/>
-      <c r="AX27" s="42"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="62"/>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="62"/>
+      <c r="AJ27" s="62"/>
+      <c r="AK27" s="62"/>
+      <c r="AL27" s="62"/>
+      <c r="AM27" s="62"/>
+      <c r="AN27" s="62"/>
+      <c r="AO27" s="62"/>
+      <c r="AP27" s="62"/>
+      <c r="AQ27" s="62"/>
+      <c r="AR27" s="62"/>
+      <c r="AS27" s="62"/>
+      <c r="AT27" s="62"/>
+      <c r="AU27" s="62"/>
+      <c r="AV27" s="62"/>
+      <c r="AW27" s="62"/>
+      <c r="AX27" s="63"/>
     </row>
     <row r="32" spans="3:71" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
@@ -2992,47 +2992,42 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="AE5:AH5"/>
-    <mergeCell ref="AJ5:AM5"/>
-    <mergeCell ref="AO5:AR5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E5:E16"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="AX5:AX16"/>
-    <mergeCell ref="BC5:BC16"/>
-    <mergeCell ref="BH5:BH16"/>
-    <mergeCell ref="Y5:Y16"/>
-    <mergeCell ref="BD5:BG5"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="AT5:AW5"/>
-    <mergeCell ref="AD5:AD16"/>
-    <mergeCell ref="AI5:AI16"/>
-    <mergeCell ref="AN5:AN16"/>
-    <mergeCell ref="AY8:BB8"/>
-    <mergeCell ref="BD8:BG8"/>
-    <mergeCell ref="AT14:AW14"/>
-    <mergeCell ref="AY5:BB5"/>
-    <mergeCell ref="AS5:AS16"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:AX25"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:AX27"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E18:AX19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:AX21"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:AX23"/>
+    <mergeCell ref="AT8:AW8"/>
+    <mergeCell ref="AJ8:AM8"/>
+    <mergeCell ref="AO8:AR8"/>
+    <mergeCell ref="AO10:AR10"/>
+    <mergeCell ref="AJ10:AM10"/>
+    <mergeCell ref="AJ12:AM12"/>
+    <mergeCell ref="AO12:AR12"/>
+    <mergeCell ref="AE8:AH8"/>
+    <mergeCell ref="AE10:AH10"/>
+    <mergeCell ref="AE12:AH12"/>
+    <mergeCell ref="AE14:AH14"/>
+    <mergeCell ref="AE16:AH16"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="Z16:AC16"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="O5:O16"/>
+    <mergeCell ref="J5:J16"/>
+    <mergeCell ref="T5:T16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="P16:S16"/>
     <mergeCell ref="BI8:BL8"/>
     <mergeCell ref="BN8:BQ8"/>
     <mergeCell ref="BI10:BL10"/>
@@ -3057,54 +3052,59 @@
     <mergeCell ref="BI14:BL14"/>
     <mergeCell ref="BD14:BG14"/>
     <mergeCell ref="AY14:BB14"/>
+    <mergeCell ref="AX5:AX16"/>
+    <mergeCell ref="BC5:BC16"/>
+    <mergeCell ref="BH5:BH16"/>
+    <mergeCell ref="Y5:Y16"/>
+    <mergeCell ref="BD5:BG5"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="AT5:AW5"/>
+    <mergeCell ref="AD5:AD16"/>
+    <mergeCell ref="AI5:AI16"/>
+    <mergeCell ref="AN5:AN16"/>
+    <mergeCell ref="AY8:BB8"/>
+    <mergeCell ref="BD8:BG8"/>
+    <mergeCell ref="AT14:AW14"/>
+    <mergeCell ref="AY5:BB5"/>
+    <mergeCell ref="AS5:AS16"/>
+    <mergeCell ref="AO14:AR14"/>
+    <mergeCell ref="AJ14:AM14"/>
+    <mergeCell ref="AJ16:AM16"/>
+    <mergeCell ref="AO16:AR16"/>
+    <mergeCell ref="AJ5:AM5"/>
+    <mergeCell ref="AO5:AR5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E5:E16"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F10:I10"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="AO14:AR14"/>
-    <mergeCell ref="AJ14:AM14"/>
-    <mergeCell ref="AJ16:AM16"/>
-    <mergeCell ref="AO16:AR16"/>
     <mergeCell ref="U10:X10"/>
     <mergeCell ref="U12:X12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="AE5:AH5"/>
     <mergeCell ref="U14:X14"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="Z16:AC16"/>
-    <mergeCell ref="Z14:AC14"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="O5:O16"/>
-    <mergeCell ref="J5:J16"/>
-    <mergeCell ref="T5:T16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:AX25"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:AX27"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E18:AX19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:AX21"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:AX23"/>
-    <mergeCell ref="AT8:AW8"/>
-    <mergeCell ref="AJ8:AM8"/>
-    <mergeCell ref="AO8:AR8"/>
-    <mergeCell ref="AO10:AR10"/>
-    <mergeCell ref="AJ10:AM10"/>
-    <mergeCell ref="AJ12:AM12"/>
-    <mergeCell ref="AO12:AR12"/>
-    <mergeCell ref="AE8:AH8"/>
-    <mergeCell ref="AE10:AH10"/>
-    <mergeCell ref="AE12:AH12"/>
-    <mergeCell ref="AE14:AH14"/>
-    <mergeCell ref="AE16:AH16"/>
-    <mergeCell ref="U8:X8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentos/RBAC.xlsx
+++ b/Documentos/RBAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestorRestauranteWEB\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A8F0E0-782C-4242-BC18-4971EA79D685}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAE4A14-D50C-44DD-91F6-93B877FC2062}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{844C1BEA-3A98-4A24-8BD3-ADFF3B39AE3F}"/>
+    <workbookView xWindow="-21075" yWindow="4800" windowWidth="28800" windowHeight="8160" xr2:uid="{844C1BEA-3A98-4A24-8BD3-ADFF3B39AE3F}"/>
   </bookViews>
   <sheets>
     <sheet name="RULES" sheetId="1" r:id="rId1"/>
@@ -657,6 +657,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -666,47 +702,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -717,24 +789,42 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -747,101 +837,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1163,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C0E60F-0EAC-4C00-B17B-FA281A7874B2}">
   <dimension ref="C4:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
@@ -1171,42 +1171,42 @@
   <sheetData>
     <row r="4" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="31" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31" t="s">
+      <c r="F5" s="25"/>
+      <c r="G5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31" t="s">
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="13" t="s">
         <v>31</v>
       </c>
@@ -1223,22 +1223,22 @@
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="13" t="s">
         <v>35</v>
       </c>
@@ -1255,22 +1255,22 @@
       <c r="L9" s="15"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="23"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="13" t="s">
         <v>38</v>
       </c>
@@ -1287,22 +1287,22 @@
       <c r="L11" s="15"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="21"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="23"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="13" t="s">
         <v>41</v>
       </c>
@@ -1319,80 +1319,74 @@
       <c r="L13" s="15"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="32"/>
+      <c r="E15" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16" t="s">
+      <c r="F15" s="28"/>
+      <c r="G15" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17" t="s">
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="18"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="30"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
@@ -1409,13 +1403,19 @@
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="C12:L12"/>
     <mergeCell ref="C14:L14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J7" r:id="rId1" xr:uid="{329CB05F-94CD-42AE-A5CF-0F7F122D6BE7}"/>
@@ -1432,7 +1432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC630C6-D830-4A94-8FEE-8365932EB08B}">
   <dimension ref="A1:BS32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="AK15" sqref="AK15"/>
     </sheetView>
   </sheetViews>
@@ -1462,110 +1462,110 @@
     <row r="5" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="37" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="37" t="s">
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="41" t="s">
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="37" t="s">
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="37" t="s">
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="38" t="s">
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="38" t="s">
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="60"/>
+      <c r="AJ5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="37" t="s">
+      <c r="AK5" s="68"/>
+      <c r="AL5" s="68"/>
+      <c r="AM5" s="69"/>
+      <c r="AN5" s="60"/>
+      <c r="AO5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="AP5" s="37"/>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="46"/>
-      <c r="AT5" s="37" t="s">
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="60"/>
+      <c r="AT5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="AU5" s="37"/>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="46"/>
-      <c r="AY5" s="37" t="s">
+      <c r="AU5" s="66"/>
+      <c r="AV5" s="66"/>
+      <c r="AW5" s="66"/>
+      <c r="AX5" s="60"/>
+      <c r="AY5" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="37"/>
-      <c r="BB5" s="37"/>
-      <c r="BC5" s="46"/>
-      <c r="BD5" s="37" t="s">
+      <c r="AZ5" s="66"/>
+      <c r="BA5" s="66"/>
+      <c r="BB5" s="66"/>
+      <c r="BC5" s="60"/>
+      <c r="BD5" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="BE5" s="37"/>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="37"/>
-      <c r="BH5" s="46"/>
-      <c r="BI5" s="37" t="s">
+      <c r="BE5" s="66"/>
+      <c r="BF5" s="66"/>
+      <c r="BG5" s="66"/>
+      <c r="BH5" s="60"/>
+      <c r="BI5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="BJ5" s="37"/>
-      <c r="BK5" s="37"/>
-      <c r="BL5" s="37"/>
-      <c r="BM5" s="46"/>
-      <c r="BN5" s="37" t="s">
+      <c r="BJ5" s="66"/>
+      <c r="BK5" s="66"/>
+      <c r="BL5" s="66"/>
+      <c r="BM5" s="60"/>
+      <c r="BN5" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="BO5" s="37"/>
-      <c r="BP5" s="37"/>
-      <c r="BQ5" s="37"/>
+      <c r="BO5" s="66"/>
+      <c r="BP5" s="66"/>
+      <c r="BQ5" s="66"/>
       <c r="BR5" s="8"/>
       <c r="BS5" s="8"/>
     </row>
     <row r="6" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="44"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="47"/>
+      <c r="J6" s="61"/>
       <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1591,7 +1591,7 @@
       <c r="N6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="47"/>
+      <c r="O6" s="61"/>
       <c r="P6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="S6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="52"/>
+      <c r="T6" s="64"/>
       <c r="U6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1617,7 +1617,7 @@
       <c r="X6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Y6" s="47"/>
+      <c r="Y6" s="61"/>
       <c r="Z6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1630,7 +1630,7 @@
       <c r="AC6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AD6" s="47"/>
+      <c r="AD6" s="61"/>
       <c r="AE6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1643,7 +1643,7 @@
       <c r="AH6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AI6" s="47"/>
+      <c r="AI6" s="61"/>
       <c r="AJ6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="AM6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AN6" s="47"/>
+      <c r="AN6" s="61"/>
       <c r="AO6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="AR6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AS6" s="47"/>
+      <c r="AS6" s="61"/>
       <c r="AT6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="AW6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AX6" s="47"/>
+      <c r="AX6" s="61"/>
       <c r="AY6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="BB6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BC6" s="47"/>
+      <c r="BC6" s="61"/>
       <c r="BD6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="BG6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BH6" s="47"/>
+      <c r="BH6" s="61"/>
       <c r="BI6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="BL6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BM6" s="47"/>
+      <c r="BM6" s="61"/>
       <c r="BN6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1740,71 +1740,71 @@
     <row r="7" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="44"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="74"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="47"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="47"/>
+      <c r="O7" s="61"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="52"/>
+      <c r="T7" s="64"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="47"/>
+      <c r="Y7" s="61"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="47"/>
+      <c r="AD7" s="61"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
-      <c r="AI7" s="47"/>
+      <c r="AI7" s="61"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
-      <c r="AN7" s="47"/>
+      <c r="AN7" s="61"/>
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
-      <c r="AS7" s="47"/>
+      <c r="AS7" s="61"/>
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
-      <c r="AX7" s="47"/>
+      <c r="AX7" s="61"/>
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
-      <c r="BC7" s="47"/>
+      <c r="BC7" s="61"/>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
       <c r="BG7" s="1"/>
-      <c r="BH7" s="47"/>
+      <c r="BH7" s="61"/>
       <c r="BI7" s="1"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
-      <c r="BM7" s="47"/>
+      <c r="BM7" s="61"/>
       <c r="BN7" s="1"/>
       <c r="BO7" s="1"/>
       <c r="BP7" s="1"/>
@@ -1815,144 +1815,144 @@
     <row r="8" spans="1:71" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="47"/>
-      <c r="AO8" s="33"/>
-      <c r="AP8" s="34"/>
-      <c r="AQ8" s="34"/>
-      <c r="AR8" s="35"/>
-      <c r="AS8" s="47"/>
-      <c r="AT8" s="33"/>
-      <c r="AU8" s="34"/>
-      <c r="AV8" s="34"/>
-      <c r="AW8" s="35"/>
-      <c r="AX8" s="47"/>
-      <c r="AY8" s="33"/>
-      <c r="AZ8" s="34"/>
-      <c r="BA8" s="34"/>
-      <c r="BB8" s="35"/>
-      <c r="BC8" s="47"/>
-      <c r="BD8" s="33"/>
-      <c r="BE8" s="34"/>
-      <c r="BF8" s="34"/>
-      <c r="BG8" s="35"/>
-      <c r="BH8" s="47"/>
-      <c r="BI8" s="33"/>
-      <c r="BJ8" s="34"/>
-      <c r="BK8" s="34"/>
-      <c r="BL8" s="35"/>
-      <c r="BM8" s="47"/>
-      <c r="BN8" s="33"/>
-      <c r="BO8" s="34"/>
-      <c r="BP8" s="34"/>
-      <c r="BQ8" s="35"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="61"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="61"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="58"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="61"/>
+      <c r="AJ8" s="57"/>
+      <c r="AK8" s="58"/>
+      <c r="AL8" s="58"/>
+      <c r="AM8" s="59"/>
+      <c r="AN8" s="61"/>
+      <c r="AO8" s="57"/>
+      <c r="AP8" s="58"/>
+      <c r="AQ8" s="58"/>
+      <c r="AR8" s="59"/>
+      <c r="AS8" s="61"/>
+      <c r="AT8" s="57"/>
+      <c r="AU8" s="58"/>
+      <c r="AV8" s="58"/>
+      <c r="AW8" s="59"/>
+      <c r="AX8" s="61"/>
+      <c r="AY8" s="57"/>
+      <c r="AZ8" s="58"/>
+      <c r="BA8" s="58"/>
+      <c r="BB8" s="59"/>
+      <c r="BC8" s="61"/>
+      <c r="BD8" s="57"/>
+      <c r="BE8" s="58"/>
+      <c r="BF8" s="58"/>
+      <c r="BG8" s="59"/>
+      <c r="BH8" s="61"/>
+      <c r="BI8" s="57"/>
+      <c r="BJ8" s="58"/>
+      <c r="BK8" s="58"/>
+      <c r="BL8" s="59"/>
+      <c r="BM8" s="61"/>
+      <c r="BN8" s="57"/>
+      <c r="BO8" s="58"/>
+      <c r="BP8" s="58"/>
+      <c r="BQ8" s="59"/>
       <c r="BR8" s="10"/>
       <c r="BS8" s="10"/>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="44"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="47"/>
+      <c r="J9" s="61"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="47"/>
+      <c r="O9" s="61"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="52"/>
+      <c r="T9" s="64"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="47"/>
+      <c r="Y9" s="61"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
-      <c r="AD9" s="47"/>
+      <c r="AD9" s="61"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
-      <c r="AI9" s="47"/>
+      <c r="AI9" s="61"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
-      <c r="AN9" s="47"/>
+      <c r="AN9" s="61"/>
       <c r="AO9" s="2"/>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
-      <c r="AS9" s="47"/>
+      <c r="AS9" s="61"/>
       <c r="AT9" s="2"/>
       <c r="AU9" s="1"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
-      <c r="AX9" s="47"/>
+      <c r="AX9" s="61"/>
       <c r="AY9" s="2"/>
       <c r="AZ9" s="1"/>
       <c r="BA9" s="2"/>
       <c r="BB9" s="2"/>
-      <c r="BC9" s="47"/>
+      <c r="BC9" s="61"/>
       <c r="BD9" s="2"/>
       <c r="BE9" s="1"/>
       <c r="BF9" s="2"/>
       <c r="BG9" s="2"/>
-      <c r="BH9" s="47"/>
+      <c r="BH9" s="61"/>
       <c r="BI9" s="2"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="2"/>
       <c r="BL9" s="2"/>
-      <c r="BM9" s="47"/>
+      <c r="BM9" s="61"/>
       <c r="BN9" s="2"/>
       <c r="BO9" s="1"/>
       <c r="BP9" s="2"/>
@@ -1963,144 +1963,144 @@
     <row r="10" spans="1:71" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="35"/>
-      <c r="AI10" s="47"/>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="35"/>
-      <c r="AN10" s="47"/>
-      <c r="AO10" s="33"/>
-      <c r="AP10" s="34"/>
-      <c r="AQ10" s="34"/>
-      <c r="AR10" s="35"/>
-      <c r="AS10" s="47"/>
-      <c r="AT10" s="33"/>
-      <c r="AU10" s="34"/>
-      <c r="AV10" s="34"/>
-      <c r="AW10" s="35"/>
-      <c r="AX10" s="47"/>
-      <c r="AY10" s="33"/>
-      <c r="AZ10" s="34"/>
-      <c r="BA10" s="34"/>
-      <c r="BB10" s="35"/>
-      <c r="BC10" s="47"/>
-      <c r="BD10" s="33"/>
-      <c r="BE10" s="34"/>
-      <c r="BF10" s="34"/>
-      <c r="BG10" s="35"/>
-      <c r="BH10" s="47"/>
-      <c r="BI10" s="33"/>
-      <c r="BJ10" s="34"/>
-      <c r="BK10" s="34"/>
-      <c r="BL10" s="35"/>
-      <c r="BM10" s="47"/>
-      <c r="BN10" s="33"/>
-      <c r="BO10" s="34"/>
-      <c r="BP10" s="34"/>
-      <c r="BQ10" s="35"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="57"/>
+      <c r="AK10" s="58"/>
+      <c r="AL10" s="58"/>
+      <c r="AM10" s="59"/>
+      <c r="AN10" s="61"/>
+      <c r="AO10" s="57"/>
+      <c r="AP10" s="58"/>
+      <c r="AQ10" s="58"/>
+      <c r="AR10" s="59"/>
+      <c r="AS10" s="61"/>
+      <c r="AT10" s="57"/>
+      <c r="AU10" s="58"/>
+      <c r="AV10" s="58"/>
+      <c r="AW10" s="59"/>
+      <c r="AX10" s="61"/>
+      <c r="AY10" s="57"/>
+      <c r="AZ10" s="58"/>
+      <c r="BA10" s="58"/>
+      <c r="BB10" s="59"/>
+      <c r="BC10" s="61"/>
+      <c r="BD10" s="57"/>
+      <c r="BE10" s="58"/>
+      <c r="BF10" s="58"/>
+      <c r="BG10" s="59"/>
+      <c r="BH10" s="61"/>
+      <c r="BI10" s="57"/>
+      <c r="BJ10" s="58"/>
+      <c r="BK10" s="58"/>
+      <c r="BL10" s="59"/>
+      <c r="BM10" s="61"/>
+      <c r="BN10" s="57"/>
+      <c r="BO10" s="58"/>
+      <c r="BP10" s="58"/>
+      <c r="BQ10" s="59"/>
       <c r="BR10" s="10"/>
       <c r="BS10" s="10"/>
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="44"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="74"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="47"/>
+      <c r="J11" s="61"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="1"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="47"/>
+      <c r="O11" s="61"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="52"/>
+      <c r="T11" s="64"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="47"/>
+      <c r="Y11" s="61"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="47"/>
+      <c r="AD11" s="61"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
-      <c r="AI11" s="47"/>
+      <c r="AI11" s="61"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
-      <c r="AN11" s="47"/>
+      <c r="AN11" s="61"/>
       <c r="AO11" s="2"/>
       <c r="AP11" s="1"/>
       <c r="AQ11" s="2"/>
       <c r="AR11" s="2"/>
-      <c r="AS11" s="47"/>
+      <c r="AS11" s="61"/>
       <c r="AT11" s="2"/>
       <c r="AU11" s="1"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
-      <c r="AX11" s="47"/>
+      <c r="AX11" s="61"/>
       <c r="AY11" s="2"/>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="2"/>
       <c r="BB11" s="2"/>
-      <c r="BC11" s="47"/>
+      <c r="BC11" s="61"/>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
       <c r="BG11" s="1"/>
-      <c r="BH11" s="47"/>
+      <c r="BH11" s="61"/>
       <c r="BI11" s="2"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="2"/>
       <c r="BL11" s="2"/>
-      <c r="BM11" s="47"/>
+      <c r="BM11" s="61"/>
       <c r="BN11" s="2"/>
       <c r="BO11" s="1"/>
       <c r="BP11" s="2"/>
@@ -2111,144 +2111,144 @@
     <row r="12" spans="1:71" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="47"/>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="35"/>
-      <c r="AI12" s="47"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="34"/>
-      <c r="AM12" s="35"/>
-      <c r="AN12" s="47"/>
-      <c r="AO12" s="33"/>
-      <c r="AP12" s="34"/>
-      <c r="AQ12" s="34"/>
-      <c r="AR12" s="35"/>
-      <c r="AS12" s="47"/>
-      <c r="AT12" s="33"/>
-      <c r="AU12" s="34"/>
-      <c r="AV12" s="34"/>
-      <c r="AW12" s="35"/>
-      <c r="AX12" s="47"/>
-      <c r="AY12" s="33"/>
-      <c r="AZ12" s="34"/>
-      <c r="BA12" s="34"/>
-      <c r="BB12" s="35"/>
-      <c r="BC12" s="47"/>
-      <c r="BD12" s="33"/>
-      <c r="BE12" s="34"/>
-      <c r="BF12" s="34"/>
-      <c r="BG12" s="35"/>
-      <c r="BH12" s="47"/>
-      <c r="BI12" s="33"/>
-      <c r="BJ12" s="34"/>
-      <c r="BK12" s="34"/>
-      <c r="BL12" s="35"/>
-      <c r="BM12" s="47"/>
-      <c r="BN12" s="33"/>
-      <c r="BO12" s="34"/>
-      <c r="BP12" s="34"/>
-      <c r="BQ12" s="35"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="61"/>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="58"/>
+      <c r="AL12" s="58"/>
+      <c r="AM12" s="59"/>
+      <c r="AN12" s="61"/>
+      <c r="AO12" s="57"/>
+      <c r="AP12" s="58"/>
+      <c r="AQ12" s="58"/>
+      <c r="AR12" s="59"/>
+      <c r="AS12" s="61"/>
+      <c r="AT12" s="57"/>
+      <c r="AU12" s="58"/>
+      <c r="AV12" s="58"/>
+      <c r="AW12" s="59"/>
+      <c r="AX12" s="61"/>
+      <c r="AY12" s="57"/>
+      <c r="AZ12" s="58"/>
+      <c r="BA12" s="58"/>
+      <c r="BB12" s="59"/>
+      <c r="BC12" s="61"/>
+      <c r="BD12" s="57"/>
+      <c r="BE12" s="58"/>
+      <c r="BF12" s="58"/>
+      <c r="BG12" s="59"/>
+      <c r="BH12" s="61"/>
+      <c r="BI12" s="57"/>
+      <c r="BJ12" s="58"/>
+      <c r="BK12" s="58"/>
+      <c r="BL12" s="59"/>
+      <c r="BM12" s="61"/>
+      <c r="BN12" s="57"/>
+      <c r="BO12" s="58"/>
+      <c r="BP12" s="58"/>
+      <c r="BQ12" s="59"/>
       <c r="BR12" s="10"/>
       <c r="BS12" s="10"/>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="44"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="47"/>
+      <c r="J13" s="61"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="47"/>
+      <c r="O13" s="61"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="52"/>
+      <c r="T13" s="64"/>
       <c r="U13" s="2"/>
       <c r="V13" s="1"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="47"/>
+      <c r="Y13" s="61"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
-      <c r="AD13" s="47"/>
+      <c r="AD13" s="61"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="2"/>
-      <c r="AI13" s="47"/>
+      <c r="AI13" s="61"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
-      <c r="AN13" s="47"/>
+      <c r="AN13" s="61"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
-      <c r="AS13" s="47"/>
+      <c r="AS13" s="61"/>
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
-      <c r="AX13" s="47"/>
+      <c r="AX13" s="61"/>
       <c r="AY13" s="11"/>
       <c r="AZ13" s="12"/>
       <c r="BA13" s="11"/>
       <c r="BB13" s="11"/>
-      <c r="BC13" s="47"/>
+      <c r="BC13" s="61"/>
       <c r="BD13" s="2"/>
       <c r="BE13" s="2"/>
       <c r="BF13" s="2"/>
       <c r="BG13" s="2"/>
-      <c r="BH13" s="47"/>
+      <c r="BH13" s="61"/>
       <c r="BI13" s="2"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="2"/>
       <c r="BL13" s="2"/>
-      <c r="BM13" s="47"/>
+      <c r="BM13" s="61"/>
       <c r="BN13" s="2"/>
       <c r="BO13" s="1"/>
       <c r="BP13" s="2"/>
@@ -2259,144 +2259,144 @@
     <row r="14" spans="1:71" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="34"/>
-      <c r="AG14" s="34"/>
-      <c r="AH14" s="35"/>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="34"/>
-      <c r="AL14" s="34"/>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="47"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="34"/>
-      <c r="AQ14" s="34"/>
-      <c r="AR14" s="35"/>
-      <c r="AS14" s="47"/>
-      <c r="AT14" s="33"/>
-      <c r="AU14" s="34"/>
-      <c r="AV14" s="34"/>
-      <c r="AW14" s="35"/>
-      <c r="AX14" s="47"/>
-      <c r="AY14" s="33"/>
-      <c r="AZ14" s="34"/>
-      <c r="BA14" s="34"/>
-      <c r="BB14" s="35"/>
-      <c r="BC14" s="47"/>
-      <c r="BD14" s="33"/>
-      <c r="BE14" s="34"/>
-      <c r="BF14" s="34"/>
-      <c r="BG14" s="35"/>
-      <c r="BH14" s="47"/>
-      <c r="BI14" s="33"/>
-      <c r="BJ14" s="34"/>
-      <c r="BK14" s="34"/>
-      <c r="BL14" s="35"/>
-      <c r="BM14" s="47"/>
-      <c r="BN14" s="33"/>
-      <c r="BO14" s="34"/>
-      <c r="BP14" s="34"/>
-      <c r="BQ14" s="35"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="58"/>
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="61"/>
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="58"/>
+      <c r="AL14" s="58"/>
+      <c r="AM14" s="59"/>
+      <c r="AN14" s="61"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="58"/>
+      <c r="AQ14" s="58"/>
+      <c r="AR14" s="59"/>
+      <c r="AS14" s="61"/>
+      <c r="AT14" s="57"/>
+      <c r="AU14" s="58"/>
+      <c r="AV14" s="58"/>
+      <c r="AW14" s="59"/>
+      <c r="AX14" s="61"/>
+      <c r="AY14" s="57"/>
+      <c r="AZ14" s="58"/>
+      <c r="BA14" s="58"/>
+      <c r="BB14" s="59"/>
+      <c r="BC14" s="61"/>
+      <c r="BD14" s="57"/>
+      <c r="BE14" s="58"/>
+      <c r="BF14" s="58"/>
+      <c r="BG14" s="59"/>
+      <c r="BH14" s="61"/>
+      <c r="BI14" s="57"/>
+      <c r="BJ14" s="58"/>
+      <c r="BK14" s="58"/>
+      <c r="BL14" s="59"/>
+      <c r="BM14" s="61"/>
+      <c r="BN14" s="57"/>
+      <c r="BO14" s="58"/>
+      <c r="BP14" s="58"/>
+      <c r="BQ14" s="59"/>
       <c r="BR14" s="10"/>
       <c r="BS14" s="10"/>
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="44"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="47"/>
+      <c r="J15" s="61"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="47"/>
+      <c r="O15" s="61"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="52"/>
+      <c r="T15" s="64"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="47"/>
+      <c r="Y15" s="61"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="47"/>
+      <c r="AD15" s="61"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
-      <c r="AI15" s="47"/>
+      <c r="AI15" s="61"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
-      <c r="AN15" s="47"/>
+      <c r="AN15" s="61"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
       <c r="AR15" s="2"/>
-      <c r="AS15" s="47"/>
+      <c r="AS15" s="61"/>
       <c r="AT15" s="2"/>
       <c r="AU15" s="1"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
-      <c r="AX15" s="47"/>
+      <c r="AX15" s="61"/>
       <c r="AY15" s="2"/>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="2"/>
       <c r="BB15" s="2"/>
-      <c r="BC15" s="47"/>
+      <c r="BC15" s="61"/>
       <c r="BD15" s="2"/>
       <c r="BE15" s="2"/>
       <c r="BF15" s="2"/>
       <c r="BG15" s="2"/>
-      <c r="BH15" s="47"/>
+      <c r="BH15" s="61"/>
       <c r="BI15" s="2"/>
       <c r="BJ15" s="2"/>
       <c r="BK15" s="2"/>
       <c r="BL15" s="2"/>
-      <c r="BM15" s="47"/>
+      <c r="BM15" s="61"/>
       <c r="BN15" s="2"/>
       <c r="BO15" s="2"/>
       <c r="BP15" s="2"/>
@@ -2405,585 +2405,585 @@
       <c r="BS15" s="7"/>
     </row>
     <row r="16" spans="1:71" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="35"/>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="35"/>
-      <c r="AN16" s="48"/>
-      <c r="AO16" s="33"/>
-      <c r="AP16" s="34"/>
-      <c r="AQ16" s="34"/>
-      <c r="AR16" s="35"/>
-      <c r="AS16" s="48"/>
-      <c r="AT16" s="33"/>
-      <c r="AU16" s="34"/>
-      <c r="AV16" s="34"/>
-      <c r="AW16" s="35"/>
-      <c r="AX16" s="48"/>
-      <c r="AY16" s="33"/>
-      <c r="AZ16" s="34"/>
-      <c r="BA16" s="34"/>
-      <c r="BB16" s="35"/>
-      <c r="BC16" s="48"/>
-      <c r="BD16" s="33"/>
-      <c r="BE16" s="34"/>
-      <c r="BF16" s="34"/>
-      <c r="BG16" s="35"/>
-      <c r="BH16" s="48"/>
-      <c r="BI16" s="33"/>
-      <c r="BJ16" s="34"/>
-      <c r="BK16" s="34"/>
-      <c r="BL16" s="35"/>
-      <c r="BM16" s="48"/>
-      <c r="BN16" s="33"/>
-      <c r="BO16" s="34"/>
-      <c r="BP16" s="34"/>
-      <c r="BQ16" s="35"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="58"/>
+      <c r="AG16" s="58"/>
+      <c r="AH16" s="59"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="57"/>
+      <c r="AK16" s="58"/>
+      <c r="AL16" s="58"/>
+      <c r="AM16" s="59"/>
+      <c r="AN16" s="62"/>
+      <c r="AO16" s="57"/>
+      <c r="AP16" s="58"/>
+      <c r="AQ16" s="58"/>
+      <c r="AR16" s="59"/>
+      <c r="AS16" s="62"/>
+      <c r="AT16" s="57"/>
+      <c r="AU16" s="58"/>
+      <c r="AV16" s="58"/>
+      <c r="AW16" s="59"/>
+      <c r="AX16" s="62"/>
+      <c r="AY16" s="57"/>
+      <c r="AZ16" s="58"/>
+      <c r="BA16" s="58"/>
+      <c r="BB16" s="59"/>
+      <c r="BC16" s="62"/>
+      <c r="BD16" s="57"/>
+      <c r="BE16" s="58"/>
+      <c r="BF16" s="58"/>
+      <c r="BG16" s="59"/>
+      <c r="BH16" s="62"/>
+      <c r="BI16" s="57"/>
+      <c r="BJ16" s="58"/>
+      <c r="BK16" s="58"/>
+      <c r="BL16" s="59"/>
+      <c r="BM16" s="62"/>
+      <c r="BN16" s="57"/>
+      <c r="BO16" s="58"/>
+      <c r="BP16" s="58"/>
+      <c r="BQ16" s="59"/>
     </row>
     <row r="17" spans="3:71" x14ac:dyDescent="0.25">
       <c r="BR17" s="7"/>
       <c r="BS17" s="7"/>
     </row>
     <row r="18" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="66" t="s">
+      <c r="D18" s="34"/>
+      <c r="E18" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="67"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="67"/>
-      <c r="AC18" s="67"/>
-      <c r="AD18" s="67"/>
-      <c r="AE18" s="67"/>
-      <c r="AF18" s="67"/>
-      <c r="AG18" s="67"/>
-      <c r="AH18" s="67"/>
-      <c r="AI18" s="67"/>
-      <c r="AJ18" s="67"/>
-      <c r="AK18" s="67"/>
-      <c r="AL18" s="67"/>
-      <c r="AM18" s="67"/>
-      <c r="AN18" s="67"/>
-      <c r="AO18" s="67"/>
-      <c r="AP18" s="67"/>
-      <c r="AQ18" s="67"/>
-      <c r="AR18" s="67"/>
-      <c r="AS18" s="67"/>
-      <c r="AT18" s="67"/>
-      <c r="AU18" s="67"/>
-      <c r="AV18" s="67"/>
-      <c r="AW18" s="67"/>
-      <c r="AX18" s="68"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="46"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46"/>
+      <c r="AJ18" s="46"/>
+      <c r="AK18" s="46"/>
+      <c r="AL18" s="46"/>
+      <c r="AM18" s="46"/>
+      <c r="AN18" s="46"/>
+      <c r="AO18" s="46"/>
+      <c r="AP18" s="46"/>
+      <c r="AQ18" s="46"/>
+      <c r="AR18" s="46"/>
+      <c r="AS18" s="46"/>
+      <c r="AT18" s="46"/>
+      <c r="AU18" s="46"/>
+      <c r="AV18" s="46"/>
+      <c r="AW18" s="46"/>
+      <c r="AX18" s="47"/>
     </row>
     <row r="19" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="70"/>
-      <c r="Y19" s="70"/>
-      <c r="Z19" s="70"/>
-      <c r="AA19" s="70"/>
-      <c r="AB19" s="70"/>
-      <c r="AC19" s="70"/>
-      <c r="AD19" s="70"/>
-      <c r="AE19" s="70"/>
-      <c r="AF19" s="70"/>
-      <c r="AG19" s="70"/>
-      <c r="AH19" s="70"/>
-      <c r="AI19" s="70"/>
-      <c r="AJ19" s="70"/>
-      <c r="AK19" s="70"/>
-      <c r="AL19" s="70"/>
-      <c r="AM19" s="70"/>
-      <c r="AN19" s="70"/>
-      <c r="AO19" s="70"/>
-      <c r="AP19" s="70"/>
-      <c r="AQ19" s="70"/>
-      <c r="AR19" s="70"/>
-      <c r="AS19" s="70"/>
-      <c r="AT19" s="70"/>
-      <c r="AU19" s="70"/>
-      <c r="AV19" s="70"/>
-      <c r="AW19" s="70"/>
-      <c r="AX19" s="71"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="49"/>
+      <c r="AG19" s="49"/>
+      <c r="AH19" s="49"/>
+      <c r="AI19" s="49"/>
+      <c r="AJ19" s="49"/>
+      <c r="AK19" s="49"/>
+      <c r="AL19" s="49"/>
+      <c r="AM19" s="49"/>
+      <c r="AN19" s="49"/>
+      <c r="AO19" s="49"/>
+      <c r="AP19" s="49"/>
+      <c r="AQ19" s="49"/>
+      <c r="AR19" s="49"/>
+      <c r="AS19" s="49"/>
+      <c r="AT19" s="49"/>
+      <c r="AU19" s="49"/>
+      <c r="AV19" s="49"/>
+      <c r="AW19" s="49"/>
+      <c r="AX19" s="50"/>
     </row>
     <row r="20" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="72" t="s">
+      <c r="D20" s="34"/>
+      <c r="E20" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="73"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="73"/>
-      <c r="AA20" s="73"/>
-      <c r="AB20" s="73"/>
-      <c r="AC20" s="73"/>
-      <c r="AD20" s="73"/>
-      <c r="AE20" s="73"/>
-      <c r="AF20" s="73"/>
-      <c r="AG20" s="73"/>
-      <c r="AH20" s="73"/>
-      <c r="AI20" s="73"/>
-      <c r="AJ20" s="73"/>
-      <c r="AK20" s="73"/>
-      <c r="AL20" s="73"/>
-      <c r="AM20" s="73"/>
-      <c r="AN20" s="73"/>
-      <c r="AO20" s="73"/>
-      <c r="AP20" s="73"/>
-      <c r="AQ20" s="73"/>
-      <c r="AR20" s="73"/>
-      <c r="AS20" s="73"/>
-      <c r="AT20" s="73"/>
-      <c r="AU20" s="73"/>
-      <c r="AV20" s="73"/>
-      <c r="AW20" s="73"/>
-      <c r="AX20" s="74"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="52"/>
+      <c r="AJ20" s="52"/>
+      <c r="AK20" s="52"/>
+      <c r="AL20" s="52"/>
+      <c r="AM20" s="52"/>
+      <c r="AN20" s="52"/>
+      <c r="AO20" s="52"/>
+      <c r="AP20" s="52"/>
+      <c r="AQ20" s="52"/>
+      <c r="AR20" s="52"/>
+      <c r="AS20" s="52"/>
+      <c r="AT20" s="52"/>
+      <c r="AU20" s="52"/>
+      <c r="AV20" s="52"/>
+      <c r="AW20" s="52"/>
+      <c r="AX20" s="53"/>
     </row>
     <row r="21" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="76"/>
-      <c r="T21" s="76"/>
-      <c r="U21" s="76"/>
-      <c r="V21" s="76"/>
-      <c r="W21" s="76"/>
-      <c r="X21" s="76"/>
-      <c r="Y21" s="76"/>
-      <c r="Z21" s="76"/>
-      <c r="AA21" s="76"/>
-      <c r="AB21" s="76"/>
-      <c r="AC21" s="76"/>
-      <c r="AD21" s="76"/>
-      <c r="AE21" s="76"/>
-      <c r="AF21" s="76"/>
-      <c r="AG21" s="76"/>
-      <c r="AH21" s="76"/>
-      <c r="AI21" s="76"/>
-      <c r="AJ21" s="76"/>
-      <c r="AK21" s="76"/>
-      <c r="AL21" s="76"/>
-      <c r="AM21" s="76"/>
-      <c r="AN21" s="76"/>
-      <c r="AO21" s="76"/>
-      <c r="AP21" s="76"/>
-      <c r="AQ21" s="76"/>
-      <c r="AR21" s="76"/>
-      <c r="AS21" s="76"/>
-      <c r="AT21" s="76"/>
-      <c r="AU21" s="76"/>
-      <c r="AV21" s="76"/>
-      <c r="AW21" s="76"/>
-      <c r="AX21" s="77"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="55"/>
+      <c r="AF21" s="55"/>
+      <c r="AG21" s="55"/>
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="55"/>
+      <c r="AJ21" s="55"/>
+      <c r="AK21" s="55"/>
+      <c r="AL21" s="55"/>
+      <c r="AM21" s="55"/>
+      <c r="AN21" s="55"/>
+      <c r="AO21" s="55"/>
+      <c r="AP21" s="55"/>
+      <c r="AQ21" s="55"/>
+      <c r="AR21" s="55"/>
+      <c r="AS21" s="55"/>
+      <c r="AT21" s="55"/>
+      <c r="AU21" s="55"/>
+      <c r="AV21" s="55"/>
+      <c r="AW21" s="55"/>
+      <c r="AX21" s="56"/>
     </row>
     <row r="22" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="59"/>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="59"/>
-      <c r="AJ22" s="59"/>
-      <c r="AK22" s="59"/>
-      <c r="AL22" s="59"/>
-      <c r="AM22" s="59"/>
-      <c r="AN22" s="59"/>
-      <c r="AO22" s="59"/>
-      <c r="AP22" s="59"/>
-      <c r="AQ22" s="59"/>
-      <c r="AR22" s="59"/>
-      <c r="AS22" s="59"/>
-      <c r="AT22" s="59"/>
-      <c r="AU22" s="59"/>
-      <c r="AV22" s="59"/>
-      <c r="AW22" s="59"/>
-      <c r="AX22" s="60"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="38"/>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="38"/>
+      <c r="AH22" s="38"/>
+      <c r="AI22" s="38"/>
+      <c r="AJ22" s="38"/>
+      <c r="AK22" s="38"/>
+      <c r="AL22" s="38"/>
+      <c r="AM22" s="38"/>
+      <c r="AN22" s="38"/>
+      <c r="AO22" s="38"/>
+      <c r="AP22" s="38"/>
+      <c r="AQ22" s="38"/>
+      <c r="AR22" s="38"/>
+      <c r="AS22" s="38"/>
+      <c r="AT22" s="38"/>
+      <c r="AU22" s="38"/>
+      <c r="AV22" s="38"/>
+      <c r="AW22" s="38"/>
+      <c r="AX22" s="39"/>
     </row>
     <row r="23" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C23" s="56"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="62"/>
-      <c r="AA23" s="62"/>
-      <c r="AB23" s="62"/>
-      <c r="AC23" s="62"/>
-      <c r="AD23" s="62"/>
-      <c r="AE23" s="62"/>
-      <c r="AF23" s="62"/>
-      <c r="AG23" s="62"/>
-      <c r="AH23" s="62"/>
-      <c r="AI23" s="62"/>
-      <c r="AJ23" s="62"/>
-      <c r="AK23" s="62"/>
-      <c r="AL23" s="62"/>
-      <c r="AM23" s="62"/>
-      <c r="AN23" s="62"/>
-      <c r="AO23" s="62"/>
-      <c r="AP23" s="62"/>
-      <c r="AQ23" s="62"/>
-      <c r="AR23" s="62"/>
-      <c r="AS23" s="62"/>
-      <c r="AT23" s="62"/>
-      <c r="AU23" s="62"/>
-      <c r="AV23" s="62"/>
-      <c r="AW23" s="62"/>
-      <c r="AX23" s="63"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="41"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="41"/>
+      <c r="AK23" s="41"/>
+      <c r="AL23" s="41"/>
+      <c r="AM23" s="41"/>
+      <c r="AN23" s="41"/>
+      <c r="AO23" s="41"/>
+      <c r="AP23" s="41"/>
+      <c r="AQ23" s="41"/>
+      <c r="AR23" s="41"/>
+      <c r="AS23" s="41"/>
+      <c r="AT23" s="41"/>
+      <c r="AU23" s="41"/>
+      <c r="AV23" s="41"/>
+      <c r="AW23" s="41"/>
+      <c r="AX23" s="42"/>
     </row>
     <row r="24" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="59"/>
-      <c r="AK24" s="59"/>
-      <c r="AL24" s="59"/>
-      <c r="AM24" s="59"/>
-      <c r="AN24" s="59"/>
-      <c r="AO24" s="59"/>
-      <c r="AP24" s="59"/>
-      <c r="AQ24" s="59"/>
-      <c r="AR24" s="59"/>
-      <c r="AS24" s="59"/>
-      <c r="AT24" s="59"/>
-      <c r="AU24" s="59"/>
-      <c r="AV24" s="59"/>
-      <c r="AW24" s="59"/>
-      <c r="AX24" s="60"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="38"/>
+      <c r="AN24" s="38"/>
+      <c r="AO24" s="38"/>
+      <c r="AP24" s="38"/>
+      <c r="AQ24" s="38"/>
+      <c r="AR24" s="38"/>
+      <c r="AS24" s="38"/>
+      <c r="AT24" s="38"/>
+      <c r="AU24" s="38"/>
+      <c r="AV24" s="38"/>
+      <c r="AW24" s="38"/>
+      <c r="AX24" s="39"/>
     </row>
     <row r="25" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="62"/>
-      <c r="W25" s="62"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="62"/>
-      <c r="AA25" s="62"/>
-      <c r="AB25" s="62"/>
-      <c r="AC25" s="62"/>
-      <c r="AD25" s="62"/>
-      <c r="AE25" s="62"/>
-      <c r="AF25" s="62"/>
-      <c r="AG25" s="62"/>
-      <c r="AH25" s="62"/>
-      <c r="AI25" s="62"/>
-      <c r="AJ25" s="62"/>
-      <c r="AK25" s="62"/>
-      <c r="AL25" s="62"/>
-      <c r="AM25" s="62"/>
-      <c r="AN25" s="62"/>
-      <c r="AO25" s="62"/>
-      <c r="AP25" s="62"/>
-      <c r="AQ25" s="62"/>
-      <c r="AR25" s="62"/>
-      <c r="AS25" s="62"/>
-      <c r="AT25" s="62"/>
-      <c r="AU25" s="62"/>
-      <c r="AV25" s="62"/>
-      <c r="AW25" s="62"/>
-      <c r="AX25" s="63"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="41"/>
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="41"/>
+      <c r="AF25" s="41"/>
+      <c r="AG25" s="41"/>
+      <c r="AH25" s="41"/>
+      <c r="AI25" s="41"/>
+      <c r="AJ25" s="41"/>
+      <c r="AK25" s="41"/>
+      <c r="AL25" s="41"/>
+      <c r="AM25" s="41"/>
+      <c r="AN25" s="41"/>
+      <c r="AO25" s="41"/>
+      <c r="AP25" s="41"/>
+      <c r="AQ25" s="41"/>
+      <c r="AR25" s="41"/>
+      <c r="AS25" s="41"/>
+      <c r="AT25" s="41"/>
+      <c r="AU25" s="41"/>
+      <c r="AV25" s="41"/>
+      <c r="AW25" s="41"/>
+      <c r="AX25" s="42"/>
     </row>
     <row r="26" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="59"/>
-      <c r="AK26" s="59"/>
-      <c r="AL26" s="59"/>
-      <c r="AM26" s="59"/>
-      <c r="AN26" s="59"/>
-      <c r="AO26" s="59"/>
-      <c r="AP26" s="59"/>
-      <c r="AQ26" s="59"/>
-      <c r="AR26" s="59"/>
-      <c r="AS26" s="59"/>
-      <c r="AT26" s="59"/>
-      <c r="AU26" s="59"/>
-      <c r="AV26" s="59"/>
-      <c r="AW26" s="59"/>
-      <c r="AX26" s="60"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="38"/>
+      <c r="AG26" s="38"/>
+      <c r="AH26" s="38"/>
+      <c r="AI26" s="38"/>
+      <c r="AJ26" s="38"/>
+      <c r="AK26" s="38"/>
+      <c r="AL26" s="38"/>
+      <c r="AM26" s="38"/>
+      <c r="AN26" s="38"/>
+      <c r="AO26" s="38"/>
+      <c r="AP26" s="38"/>
+      <c r="AQ26" s="38"/>
+      <c r="AR26" s="38"/>
+      <c r="AS26" s="38"/>
+      <c r="AT26" s="38"/>
+      <c r="AU26" s="38"/>
+      <c r="AV26" s="38"/>
+      <c r="AW26" s="38"/>
+      <c r="AX26" s="39"/>
     </row>
     <row r="27" spans="3:71" x14ac:dyDescent="0.25">
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="62"/>
-      <c r="AA27" s="62"/>
-      <c r="AB27" s="62"/>
-      <c r="AC27" s="62"/>
-      <c r="AD27" s="62"/>
-      <c r="AE27" s="62"/>
-      <c r="AF27" s="62"/>
-      <c r="AG27" s="62"/>
-      <c r="AH27" s="62"/>
-      <c r="AI27" s="62"/>
-      <c r="AJ27" s="62"/>
-      <c r="AK27" s="62"/>
-      <c r="AL27" s="62"/>
-      <c r="AM27" s="62"/>
-      <c r="AN27" s="62"/>
-      <c r="AO27" s="62"/>
-      <c r="AP27" s="62"/>
-      <c r="AQ27" s="62"/>
-      <c r="AR27" s="62"/>
-      <c r="AS27" s="62"/>
-      <c r="AT27" s="62"/>
-      <c r="AU27" s="62"/>
-      <c r="AV27" s="62"/>
-      <c r="AW27" s="62"/>
-      <c r="AX27" s="63"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="41"/>
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="41"/>
+      <c r="AG27" s="41"/>
+      <c r="AH27" s="41"/>
+      <c r="AI27" s="41"/>
+      <c r="AJ27" s="41"/>
+      <c r="AK27" s="41"/>
+      <c r="AL27" s="41"/>
+      <c r="AM27" s="41"/>
+      <c r="AN27" s="41"/>
+      <c r="AO27" s="41"/>
+      <c r="AP27" s="41"/>
+      <c r="AQ27" s="41"/>
+      <c r="AR27" s="41"/>
+      <c r="AS27" s="41"/>
+      <c r="AT27" s="41"/>
+      <c r="AU27" s="41"/>
+      <c r="AV27" s="41"/>
+      <c r="AW27" s="41"/>
+      <c r="AX27" s="42"/>
     </row>
     <row r="32" spans="3:71" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
@@ -2992,6 +2992,95 @@
     </row>
   </sheetData>
   <mergeCells count="113">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E5:E16"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="AX5:AX16"/>
+    <mergeCell ref="BC5:BC16"/>
+    <mergeCell ref="BH5:BH16"/>
+    <mergeCell ref="Y5:Y16"/>
+    <mergeCell ref="BD5:BG5"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="AT5:AW5"/>
+    <mergeCell ref="AD5:AD16"/>
+    <mergeCell ref="AI5:AI16"/>
+    <mergeCell ref="AN5:AN16"/>
+    <mergeCell ref="AY8:BB8"/>
+    <mergeCell ref="BD8:BG8"/>
+    <mergeCell ref="AT14:AW14"/>
+    <mergeCell ref="AY5:BB5"/>
+    <mergeCell ref="AS5:AS16"/>
+    <mergeCell ref="AO14:AR14"/>
+    <mergeCell ref="AJ14:AM14"/>
+    <mergeCell ref="AJ16:AM16"/>
+    <mergeCell ref="AO16:AR16"/>
+    <mergeCell ref="AJ5:AM5"/>
+    <mergeCell ref="AO5:AR5"/>
+    <mergeCell ref="AE5:AH5"/>
+    <mergeCell ref="BI8:BL8"/>
+    <mergeCell ref="BN8:BQ8"/>
+    <mergeCell ref="BI10:BL10"/>
+    <mergeCell ref="BN10:BQ10"/>
+    <mergeCell ref="BD10:BG10"/>
+    <mergeCell ref="AY10:BB10"/>
+    <mergeCell ref="AT10:AW10"/>
+    <mergeCell ref="BM5:BM16"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="BN5:BQ5"/>
+    <mergeCell ref="BD16:BG16"/>
+    <mergeCell ref="BI16:BL16"/>
+    <mergeCell ref="BN16:BQ16"/>
+    <mergeCell ref="AT16:AW16"/>
+    <mergeCell ref="AY16:BB16"/>
+    <mergeCell ref="AT12:AW12"/>
+    <mergeCell ref="AY12:BB12"/>
+    <mergeCell ref="BD12:BG12"/>
+    <mergeCell ref="BI12:BL12"/>
+    <mergeCell ref="BN12:BQ12"/>
+    <mergeCell ref="BN14:BQ14"/>
+    <mergeCell ref="BI14:BL14"/>
+    <mergeCell ref="BD14:BG14"/>
+    <mergeCell ref="AY14:BB14"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="Z16:AC16"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="O5:O16"/>
+    <mergeCell ref="J5:J16"/>
+    <mergeCell ref="T5:T16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="U14:X14"/>
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="E24:AX25"/>
     <mergeCell ref="C26:D27"/>
@@ -3016,95 +3105,6 @@
     <mergeCell ref="AE14:AH14"/>
     <mergeCell ref="AE16:AH16"/>
     <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="Z16:AC16"/>
-    <mergeCell ref="Z14:AC14"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="O5:O16"/>
-    <mergeCell ref="J5:J16"/>
-    <mergeCell ref="T5:T16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="BI8:BL8"/>
-    <mergeCell ref="BN8:BQ8"/>
-    <mergeCell ref="BI10:BL10"/>
-    <mergeCell ref="BN10:BQ10"/>
-    <mergeCell ref="BD10:BG10"/>
-    <mergeCell ref="AY10:BB10"/>
-    <mergeCell ref="AT10:AW10"/>
-    <mergeCell ref="BM5:BM16"/>
-    <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="BN5:BQ5"/>
-    <mergeCell ref="BD16:BG16"/>
-    <mergeCell ref="BI16:BL16"/>
-    <mergeCell ref="BN16:BQ16"/>
-    <mergeCell ref="AT16:AW16"/>
-    <mergeCell ref="AY16:BB16"/>
-    <mergeCell ref="AT12:AW12"/>
-    <mergeCell ref="AY12:BB12"/>
-    <mergeCell ref="BD12:BG12"/>
-    <mergeCell ref="BI12:BL12"/>
-    <mergeCell ref="BN12:BQ12"/>
-    <mergeCell ref="BN14:BQ14"/>
-    <mergeCell ref="BI14:BL14"/>
-    <mergeCell ref="BD14:BG14"/>
-    <mergeCell ref="AY14:BB14"/>
-    <mergeCell ref="AX5:AX16"/>
-    <mergeCell ref="BC5:BC16"/>
-    <mergeCell ref="BH5:BH16"/>
-    <mergeCell ref="Y5:Y16"/>
-    <mergeCell ref="BD5:BG5"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="AT5:AW5"/>
-    <mergeCell ref="AD5:AD16"/>
-    <mergeCell ref="AI5:AI16"/>
-    <mergeCell ref="AN5:AN16"/>
-    <mergeCell ref="AY8:BB8"/>
-    <mergeCell ref="BD8:BG8"/>
-    <mergeCell ref="AT14:AW14"/>
-    <mergeCell ref="AY5:BB5"/>
-    <mergeCell ref="AS5:AS16"/>
-    <mergeCell ref="AO14:AR14"/>
-    <mergeCell ref="AJ14:AM14"/>
-    <mergeCell ref="AJ16:AM16"/>
-    <mergeCell ref="AO16:AR16"/>
-    <mergeCell ref="AJ5:AM5"/>
-    <mergeCell ref="AO5:AR5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E5:E16"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="AE5:AH5"/>
-    <mergeCell ref="U14:X14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
